--- a/data/CCCM_SiteID_Cleaning log (V2)_Master_Script_V2.xlsx
+++ b/data/CCCM_SiteID_Cleaning log (V2)_Master_Script_V2.xlsx
@@ -16,14 +16,14 @@
     <sheet name="legend" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cleaning_log!$A$1:$J$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cleaning_log!$A$1:$J$237</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="373">
   <si>
     <t>uuid</t>
   </si>
@@ -433,12 +433,6 @@
     <t>Al Salam Camp</t>
   </si>
   <si>
-    <t>cbf19df1-df5f-42f1-be00-177babb1ffab</t>
-  </si>
-  <si>
-    <t>Al-Nuqtah building</t>
-  </si>
-  <si>
     <t>d6b9eb00-53a7-4a61-9614-e0a82bd42665</t>
   </si>
   <si>
@@ -532,9 +526,6 @@
     <t>f4cdfcc4-58be-4807-9a96-0a9d17dfd3c3</t>
   </si>
   <si>
-    <t>not_available</t>
-  </si>
-  <si>
     <t>Qahfah Arfah</t>
   </si>
   <si>
@@ -557,6 +548,600 @@
   </si>
   <si>
     <t>Waqeer 2 (Governmental Compound)</t>
+  </si>
+  <si>
+    <t>f974dfa1-63d5-4195-a1a7-9c7c278d0eb0</t>
+  </si>
+  <si>
+    <t>YE250721</t>
+  </si>
+  <si>
+    <t>Mahwa Al Kahruba'</t>
+  </si>
+  <si>
+    <t>64db4455-73a7-4ddb-8546-387d4ae08b92</t>
+  </si>
+  <si>
+    <t>8bd9025e-454d-4e9f-bcb4-e1683941b168</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>YE171222</t>
+  </si>
+  <si>
+    <t>Bani Hamed Camp</t>
+  </si>
+  <si>
+    <t>e79ec61d-1890-48ec-98e2-62f7c5b29d84</t>
+  </si>
+  <si>
+    <t>Shawqabah Camp</t>
+  </si>
+  <si>
+    <t>4d2546e9-880f-4754-a56c-c60830114a43</t>
+  </si>
+  <si>
+    <t>adc0c78b-aa29-4607-bb46-6f924e84d290</t>
+  </si>
+  <si>
+    <t>YE171223</t>
+  </si>
+  <si>
+    <t>Al Sawadi Camp</t>
+  </si>
+  <si>
+    <t>adb9c6f5-85d9-404f-8b22-ff288a91782e</t>
+  </si>
+  <si>
+    <t>a359af25-7920-4fd6-a7a9-f320097a46cb</t>
+  </si>
+  <si>
+    <t>49d97242-cb7e-4006-b38e-8857a26fb2ab</t>
+  </si>
+  <si>
+    <t>yco</t>
+  </si>
+  <si>
+    <t>At 26 September Secondary School</t>
+  </si>
+  <si>
+    <t>ca239875-91e0-44ae-b4d6-0e15c899b732</t>
+  </si>
+  <si>
+    <t>Al Attar + Sailan building</t>
+  </si>
+  <si>
+    <t>yrcs</t>
+  </si>
+  <si>
+    <t>6159e57f-2781-4798-b2a5-9700c9e58f6a</t>
+  </si>
+  <si>
+    <t>Ali bin Abi Taleb School</t>
+  </si>
+  <si>
+    <t>da6e9597-1309-41ce-9973-bf6b95012da2</t>
+  </si>
+  <si>
+    <t>Muhammad As Saif building</t>
+  </si>
+  <si>
+    <t>46b02034-6a99-4792-b413-61fb2d1ac1cb</t>
+  </si>
+  <si>
+    <t>Muhammad Az zaghrouri building</t>
+  </si>
+  <si>
+    <t>dd372501-c2c5-4a1a-aac1-e09d9025a321</t>
+  </si>
+  <si>
+    <t>Dekharah - Wadi Al Barakani</t>
+  </si>
+  <si>
+    <t>4935abc0-2e39-4d00-924b-61efc3b28890</t>
+  </si>
+  <si>
+    <t>Habeel Alqaz</t>
+  </si>
+  <si>
+    <t>446d9f8a-f896-4216-bff3-54ee607fe5ea</t>
+  </si>
+  <si>
+    <t>Al Oqas</t>
+  </si>
+  <si>
+    <t>4e7fe322-2bd1-4b7d-a3d2-8dab00aea4e5</t>
+  </si>
+  <si>
+    <t>Al Ahlam School and Al Mansouri Hotel</t>
+  </si>
+  <si>
+    <t>d89525e7-cac4-4e45-afaf-fbb90de8f583</t>
+  </si>
+  <si>
+    <t>Al haddad building</t>
+  </si>
+  <si>
+    <t>0e790369-6461-40a4-b193-740c2d4a39dd</t>
+  </si>
+  <si>
+    <t>Al Imam street collective center</t>
+  </si>
+  <si>
+    <t>f208f6cf-6127-45ce-bc1e-3ff57c876173</t>
+  </si>
+  <si>
+    <t>Al Manather</t>
+  </si>
+  <si>
+    <t>dfc33cc3-2659-4aea-9626-41ffc44f45ed</t>
+  </si>
+  <si>
+    <t>Alqafrah</t>
+  </si>
+  <si>
+    <t>cda59364-132f-484f-a2e9-1166a5e2e677</t>
+  </si>
+  <si>
+    <t>Bier Shu'bah next to Abu Tharr Mosque</t>
+  </si>
+  <si>
+    <t>b1edbc52-016f-43bd-8f6d-0f8a7a5fa091</t>
+  </si>
+  <si>
+    <t>Shamsan Az zaghrouri building</t>
+  </si>
+  <si>
+    <t>03598f0b-d1ab-4185-ae1f-cce012eefc07</t>
+  </si>
+  <si>
+    <t>Al Ghazi</t>
+  </si>
+  <si>
+    <t>3eeaecf5-bb85-4a33-8d52-284896e7378f</t>
+  </si>
+  <si>
+    <t>Al Dabayah</t>
+  </si>
+  <si>
+    <t>8ca83f9e-9f50-406e-abf9-f9e9a5a0a786</t>
+  </si>
+  <si>
+    <t>Al Jutham Hospital</t>
+  </si>
+  <si>
+    <t>8d70edb6-ab50-4342-9026-cc94df16e40e</t>
+  </si>
+  <si>
+    <t>Al Manashier</t>
+  </si>
+  <si>
+    <t>5e25d1a6-efe4-4102-bc00-44b3c57cb147</t>
+  </si>
+  <si>
+    <t>Al Udaini building collective center</t>
+  </si>
+  <si>
+    <t>f3ceac82-dd9c-4b47-83c1-551624cd41e3</t>
+  </si>
+  <si>
+    <t>Mister Abd Albari building</t>
+  </si>
+  <si>
+    <t>8f389157-cd92-4e2a-903f-f7cffe6ce22b</t>
+  </si>
+  <si>
+    <t>Al Ershad Al Zeraie Institute</t>
+  </si>
+  <si>
+    <t>683a5348-4c3a-420e-b3b9-48ba8bc0763a</t>
+  </si>
+  <si>
+    <t>Al Jardah - Khalid Bin Al Waleed School</t>
+  </si>
+  <si>
+    <t>58580c78-dc6d-4940-8ff3-a7524c7c4a45</t>
+  </si>
+  <si>
+    <t>Al Kadiah - Omar Bin Abdulazeez School</t>
+  </si>
+  <si>
+    <t>b2cd6fbf-dfe3-43ff-87b6-77ccb0fb801c</t>
+  </si>
+  <si>
+    <t>Al Khawrah</t>
+  </si>
+  <si>
+    <t>b4_smc_agency_fp_mobile_number</t>
+  </si>
+  <si>
+    <t>normal distribution outlier</t>
+  </si>
+  <si>
+    <t>23e30514-c145-4df0-b732-2997f1b13786</t>
+  </si>
+  <si>
+    <t>AlHabeel</t>
+  </si>
+  <si>
+    <t>c5b912e7-2736-4bc8-ba64-77b18bf842ae</t>
+  </si>
+  <si>
+    <t>Al dabri</t>
+  </si>
+  <si>
+    <t>f952f6d6-10b6-442f-bf09-00b1dc246581</t>
+  </si>
+  <si>
+    <t>Aljaber</t>
+  </si>
+  <si>
+    <t>f0020d0c-e4db-4215-8b0e-f1c20c2c76fb</t>
+  </si>
+  <si>
+    <t>AlMua'ram Camp</t>
+  </si>
+  <si>
+    <t>cd83915f-e79a-4528-a82a-bd27e544e79b</t>
+  </si>
+  <si>
+    <t>Altalawth</t>
+  </si>
+  <si>
+    <t>9eb9e2ed-3ba3-4c4a-a6de-8a45ea3f773f</t>
+  </si>
+  <si>
+    <t>Al Baddah Bait Alobidy</t>
+  </si>
+  <si>
+    <t>22bfa935-518e-4363-8363-3439dfcd7994</t>
+  </si>
+  <si>
+    <t>Al mabytah</t>
+  </si>
+  <si>
+    <t>d0d94051-3252-4059-b3b7-344f33651f59</t>
+  </si>
+  <si>
+    <t>Al Majrah</t>
+  </si>
+  <si>
+    <t>5bcbd557-ffd8-4abb-ab69-232352bbec9f</t>
+  </si>
+  <si>
+    <t>Al Muru Camp</t>
+  </si>
+  <si>
+    <t>7d964f96-4f2c-4545-9cf4-52edd7d3d23c</t>
+  </si>
+  <si>
+    <t>Alanabsah</t>
+  </si>
+  <si>
+    <t>2e3749d0-6616-4b1a-875b-38e0d3ee73aa</t>
+  </si>
+  <si>
+    <t>Alarsh</t>
+  </si>
+  <si>
+    <t>75cafa83-e831-4663-8306-5efa8b9a7a87</t>
+  </si>
+  <si>
+    <t>Albain</t>
+  </si>
+  <si>
+    <t>Next to Al Bain Mosque</t>
+  </si>
+  <si>
+    <t>02f15a75-2302-4caf-a14f-51df3498e62f</t>
+  </si>
+  <si>
+    <t>Aldahr</t>
+  </si>
+  <si>
+    <t>cc19a2e6-9733-47d7-8641-9ddb18864a05</t>
+  </si>
+  <si>
+    <t>Aldahyliah</t>
+  </si>
+  <si>
+    <t>17aaaec2-a5ad-4fda-bbe8-03570bf232bb</t>
+  </si>
+  <si>
+    <t>Almakhyam</t>
+  </si>
+  <si>
+    <t>61237af6-cb8f-4e2c-aaf0-911999dc1b1a</t>
+  </si>
+  <si>
+    <t>Almarw</t>
+  </si>
+  <si>
+    <t>Al Misbar School</t>
+  </si>
+  <si>
+    <t>8b0f5902-07a5-401c-8bfe-dea5b55abe6f</t>
+  </si>
+  <si>
+    <t>AlMihsam</t>
+  </si>
+  <si>
+    <t>Next to An Nahdha School</t>
+  </si>
+  <si>
+    <t>80831619-7a92-410c-b8f2-65ddd2b67edf</t>
+  </si>
+  <si>
+    <t>Almisbar</t>
+  </si>
+  <si>
+    <t>Al Wahda School in Al Misbar</t>
+  </si>
+  <si>
+    <t>841c50dc-9114-4f96-8dd0-50eb7a3098a2</t>
+  </si>
+  <si>
+    <t>Almislaab</t>
+  </si>
+  <si>
+    <t>Jabal Bani Amer</t>
+  </si>
+  <si>
+    <t>8004b2c8-72e3-4654-b8e8-1101b8c68b29</t>
+  </si>
+  <si>
+    <t>Alrasa'ah</t>
+  </si>
+  <si>
+    <t>3ccbefae-fff4-401c-833b-bbc6400701e5</t>
+  </si>
+  <si>
+    <t>Althabyah</t>
+  </si>
+  <si>
+    <t>8167a196-db24-4ce7-ae5c-c946187edefd</t>
+  </si>
+  <si>
+    <t>Althaw'ah</t>
+  </si>
+  <si>
+    <t>c99080f4-fe5d-4cb5-ad28-a67667f2d178</t>
+  </si>
+  <si>
+    <t>Bani Bra'im</t>
+  </si>
+  <si>
+    <t>8d7f2b70-c783-4282-801f-3aad44a68919</t>
+  </si>
+  <si>
+    <t>Jreez</t>
+  </si>
+  <si>
+    <t>759b65bc-2a9b-470d-81c2-2e8a7f092e4f</t>
+  </si>
+  <si>
+    <t>Shat'a Alabd</t>
+  </si>
+  <si>
+    <t>46ae62ad-155c-4a0f-9a2f-25317c2dfab8</t>
+  </si>
+  <si>
+    <t>Wadi Aldarb</t>
+  </si>
+  <si>
+    <t>e56045ac-75b4-40b9-8ea1-354903826056</t>
+  </si>
+  <si>
+    <t>Wadi Bani Rashed (Alkarf)</t>
+  </si>
+  <si>
+    <t>a0e57083-edaf-4050-aff6-acf819c5bb99</t>
+  </si>
+  <si>
+    <t>Wadi Mwazin</t>
+  </si>
+  <si>
+    <t>b7b51599-ad7f-4d68-bac2-d74a20690e4b</t>
+  </si>
+  <si>
+    <t>Zari Almusaby</t>
+  </si>
+  <si>
+    <t>8cd881c7-9c9d-4344-bd40-564023643899</t>
+  </si>
+  <si>
+    <t>Jabal Al Ma'yanah Camp</t>
+  </si>
+  <si>
+    <t>2b7d9193-6b5e-44be-a470-c40c8bc2255f</t>
+  </si>
+  <si>
+    <t>Al Mashar Camp</t>
+  </si>
+  <si>
+    <t>8c1a9e1b-80cc-425f-8266-246dd01a5a85</t>
+  </si>
+  <si>
+    <t>Al Wased Center</t>
+  </si>
+  <si>
+    <t>9fcd31c8-c8d3-4ff1-a994-972c7fa96292</t>
+  </si>
+  <si>
+    <t>Bani Mater</t>
+  </si>
+  <si>
+    <t>c295994b-19a5-4b64-a933-c03a34be3a98</t>
+  </si>
+  <si>
+    <t>Zari Al Hasi Camp</t>
+  </si>
+  <si>
+    <t>cd97039f-3cdb-424b-94f3-4f967892b640</t>
+  </si>
+  <si>
+    <t>Al Qahfah Camp</t>
+  </si>
+  <si>
+    <t>f593449c-5086-4586-b4b7-6a855a58c30a</t>
+  </si>
+  <si>
+    <t>Al Bayda</t>
+  </si>
+  <si>
+    <t>e3dadc1e-e285-46a4-8c68-3c8a40ab386c</t>
+  </si>
+  <si>
+    <t>Al Dolwahi Camp</t>
+  </si>
+  <si>
+    <t>3d8d4e35-7512-47c5-8385-f5d7bf9847bd</t>
+  </si>
+  <si>
+    <t>Dar Ghabshah Camp</t>
+  </si>
+  <si>
+    <t>0449fb13-4616-4b43-8ccb-b646384f5e24</t>
+  </si>
+  <si>
+    <t>Al Zaqabyah 1</t>
+  </si>
+  <si>
+    <t>6f54efac-a968-4f7e-82bb-4a5a50eb1506</t>
+  </si>
+  <si>
+    <t>Al Qareeti Camp</t>
+  </si>
+  <si>
+    <t>1add05d5-36f8-4082-a5f4-7014a12de401</t>
+  </si>
+  <si>
+    <t>Al Qadhah Camp</t>
+  </si>
+  <si>
+    <t>89b8c456-de99-4085-8824-d5c558beb9cb</t>
+  </si>
+  <si>
+    <t>Al Raqabah Camp</t>
+  </si>
+  <si>
+    <t>40fa0d87-ce14-47d1-9f1d-6facaa5319e7</t>
+  </si>
+  <si>
+    <t>Gharib Haytham 1</t>
+  </si>
+  <si>
+    <t>ddafefd6-71b2-4560-a3af-90839e6a9aa1</t>
+  </si>
+  <si>
+    <t>Al Taweer</t>
+  </si>
+  <si>
+    <t>985426d6-6d9d-47c1-a54b-e83b755ab64d</t>
+  </si>
+  <si>
+    <t>Al Hajawenah</t>
+  </si>
+  <si>
+    <t>fd548223-1315-47dc-aaa5-670ea8883960</t>
+  </si>
+  <si>
+    <t>Mesyal Al Oqbi</t>
+  </si>
+  <si>
+    <t>e6e4bf62-1d90-4b19-8b11-a2c8ad7e8a31</t>
+  </si>
+  <si>
+    <t>Al Safeh</t>
+  </si>
+  <si>
+    <t>1f08be5f-38dc-4e52-869b-8016afaccf70</t>
+  </si>
+  <si>
+    <t>Al Dowalyah</t>
+  </si>
+  <si>
+    <t>0379f4f7-946c-4ebe-97d1-982a743c1acf</t>
+  </si>
+  <si>
+    <t>Al Maqademah</t>
+  </si>
+  <si>
+    <t>6db73e36-89d4-4ec3-8fe4-6ff07057700e</t>
+  </si>
+  <si>
+    <t>Al Matharah Camp</t>
+  </si>
+  <si>
+    <t>31f7586d-2fa7-4205-9d5a-f5a1e50f0dc6</t>
+  </si>
+  <si>
+    <t>Al Sa'adi</t>
+  </si>
+  <si>
+    <t>0f2ac087-f647-4947-9154-6b04784bb051</t>
+  </si>
+  <si>
+    <t>Gharbi Dubaish</t>
+  </si>
+  <si>
+    <t>9f513b7f-318b-4913-ab86-c3ed6225cbec</t>
+  </si>
+  <si>
+    <t>Jabal Abeed</t>
+  </si>
+  <si>
+    <t>South of Souq Al Khamies</t>
+  </si>
+  <si>
+    <t>df635e8d-c12c-4525-8444-570388c29c9c</t>
+  </si>
+  <si>
+    <t>She'bat Al Qawr</t>
+  </si>
+  <si>
+    <t>West of Souq Al Khamies</t>
+  </si>
+  <si>
+    <t>6a2dcfb7-d640-4346-9fb7-a05f7bb6c6a3</t>
+  </si>
+  <si>
+    <t>Albraghish</t>
+  </si>
+  <si>
+    <t>9c38500d-f11a-44c1-b5ee-cb116fdd2344</t>
+  </si>
+  <si>
+    <t>Al Lawyah 1</t>
+  </si>
+  <si>
+    <t>2b49c7e4-72c5-4c3d-a7fc-f6ad091d51a9</t>
+  </si>
+  <si>
+    <t>Al Qal'ah</t>
+  </si>
+  <si>
+    <t>726b3044-1d3c-4192-b2da-2b83bf719cd5</t>
+  </si>
+  <si>
+    <t>Wadi Al Sel</t>
+  </si>
+  <si>
+    <t>Wrong NGO providing WASH services</t>
+  </si>
+  <si>
+    <t>if_ngo_wash_services</t>
+  </si>
+  <si>
+    <t>oxfam</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>a7_site_population_individual</t>
   </si>
 </sst>
 </file>
@@ -588,7 +1173,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -610,6 +1195,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,7 +1232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -655,10 +1246,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -955,10 +1549,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J73"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,27 +1602,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>34</v>
+        <v>114</v>
+      </c>
+      <c r="F2" t="s">
+        <v>115</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -1036,30 +1631,30 @@
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>24</v>
+        <v>115</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>34</v>
+        <v>89</v>
+      </c>
+      <c r="G3" t="s">
+        <v>88</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -1068,30 +1663,30 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>100</v>
+        <v>108</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
@@ -1100,193 +1695,178 @@
         <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>270</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>271</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
+        <v>161</v>
+      </c>
+      <c r="F5" s="1">
+        <v>322249</v>
       </c>
       <c r="G5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H5" t="b">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I5" t="s">
         <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>270</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>271</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
+        <v>161</v>
+      </c>
+      <c r="F6" s="1">
+        <v>44141</v>
       </c>
       <c r="G6" t="s">
-        <v>100</v>
-      </c>
-      <c r="H6" t="b">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>223</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>196</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>224</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>100</v>
+        <v>108</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12">
+        <v>1</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="s">
         <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>346</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>347</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
+        <v>161</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2207010</v>
       </c>
       <c r="G8" t="s">
-        <v>100</v>
-      </c>
-      <c r="H8" t="b">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I8" t="s">
         <v>10</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>346</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>347</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
+        <v>161</v>
+      </c>
+      <c r="F9" s="1">
+        <v>222300</v>
       </c>
       <c r="G9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H9" t="b">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>326</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>180</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>327</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>36</v>
+        <v>161</v>
+      </c>
+      <c r="F10" s="1">
+        <v>319153</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" t="b">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
@@ -1297,217 +1877,214 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>326</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>180</v>
       </c>
       <c r="C11" t="s">
-        <v>133</v>
+        <v>327</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="1">
+        <v>354065</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>174</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F14" t="s">
         <v>36</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G14" t="s">
         <v>35</v>
       </c>
-      <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" t="s">
         <v>13</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E15" t="s">
         <v>14</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F15" t="s">
         <v>15</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G15" t="s">
         <v>99</v>
       </c>
-      <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" t="s">
-        <v>159</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B16" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D16" t="s">
         <v>106</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E16" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="F16" s="12">
+        <v>1</v>
+      </c>
+      <c r="G16" s="12">
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
         <v>160</v>
       </c>
-      <c r="B14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" t="s">
-        <v>161</v>
-      </c>
-      <c r="D14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14" t="s">
-        <v>108</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>160</v>
-      </c>
-      <c r="B15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15" t="s">
-        <v>161</v>
-      </c>
-      <c r="D15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" t="s">
-        <v>162</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="F17" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G17" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="H15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>144</v>
-      </c>
-      <c r="B16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" t="s">
-        <v>145</v>
-      </c>
-      <c r="D16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" t="s">
-        <v>163</v>
-      </c>
-      <c r="F16" s="1">
-        <v>31.9648</v>
-      </c>
-      <c r="G16" s="1">
-        <v>44.077167000000003</v>
-      </c>
-      <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>144</v>
-      </c>
-      <c r="B17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F17" s="1">
-        <v>35.841999999999999</v>
-      </c>
-      <c r="G17" s="1">
-        <v>13.612556</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
@@ -1521,89 +2098,83 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>352</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>161</v>
+        <v>180</v>
+      </c>
+      <c r="C18" t="s">
+        <v>353</v>
       </c>
       <c r="D18" t="s">
-        <v>173</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="H18" t="b">
-        <v>1</v>
+        <v>66</v>
+      </c>
+      <c r="E18" t="s">
+        <v>161</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3985475</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
       </c>
       <c r="I18" t="s">
         <v>10</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>352</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>133</v>
+        <v>180</v>
+      </c>
+      <c r="C19" t="s">
+        <v>353</v>
       </c>
       <c r="D19" t="s">
-        <v>173</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="H19" t="b">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="E19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2837005</v>
+      </c>
+      <c r="G19" t="s">
+        <v>9</v>
       </c>
       <c r="I19" t="s">
         <v>10</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>119</v>
+        <v>111</v>
+      </c>
+      <c r="C20" t="s">
+        <v>149</v>
       </c>
       <c r="D20" t="s">
-        <v>173</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>119</v>
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" t="s">
+        <v>88</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
@@ -1612,91 +2183,85 @@
         <v>10</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>132</v>
+        <v>274</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>133</v>
+        <v>180</v>
+      </c>
+      <c r="C21" t="s">
+        <v>275</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F21" t="s">
-        <v>85</v>
+        <v>66</v>
+      </c>
+      <c r="E21" t="s">
+        <v>161</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3894341</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" t="b">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I21" t="s">
         <v>10</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>144</v>
+        <v>274</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>180</v>
       </c>
       <c r="C22" t="s">
-        <v>145</v>
+        <v>275</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F22" t="s">
-        <v>85</v>
+        <v>68</v>
+      </c>
+      <c r="E22" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2388537</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" t="b">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I22" t="s">
         <v>10</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>122</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>107</v>
+        <v>330</v>
+      </c>
+      <c r="B23" t="s">
+        <v>180</v>
       </c>
       <c r="C23" t="s">
-        <v>123</v>
+        <v>331</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="F23" s="1">
-        <v>1</v>
+        <v>328174</v>
       </c>
       <c r="G23" t="s">
         <v>9</v>
@@ -1710,22 +2275,22 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>126</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>107</v>
+        <v>330</v>
+      </c>
+      <c r="B24" t="s">
+        <v>180</v>
       </c>
       <c r="C24" t="s">
-        <v>127</v>
+        <v>331</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="F24" s="1">
-        <v>1</v>
+        <v>793626</v>
       </c>
       <c r="G24" t="s">
         <v>9</v>
@@ -1739,22 +2304,22 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>122</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>107</v>
+        <v>344</v>
+      </c>
+      <c r="B25" t="s">
+        <v>180</v>
       </c>
       <c r="C25" t="s">
-        <v>123</v>
+        <v>345</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="F25" s="1">
-        <v>1</v>
+        <v>402059</v>
       </c>
       <c r="G25" t="s">
         <v>9</v>
@@ -1768,112 +2333,121 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>122</v>
-      </c>
-      <c r="B26" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="B26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C26" t="s">
+        <v>345</v>
+      </c>
+      <c r="D26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" t="s">
+        <v>161</v>
+      </c>
+      <c r="F26" s="1">
+        <v>33201012</v>
+      </c>
+      <c r="G26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C26" t="s">
-        <v>123</v>
-      </c>
-      <c r="D26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" t="s">
-        <v>9</v>
-      </c>
-      <c r="I26" t="s">
-        <v>10</v>
-      </c>
-      <c r="J26" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>130</v>
-      </c>
-      <c r="B27" s="10" t="s">
+      <c r="C27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" t="s">
+        <v>161</v>
+      </c>
+      <c r="F27">
+        <v>42.181314999999998</v>
+      </c>
+      <c r="G27">
+        <v>43.966990000000003</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C27" t="s">
-        <v>131</v>
-      </c>
-      <c r="D27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
-      <c r="G27" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27" t="s">
-        <v>10</v>
-      </c>
-      <c r="J27" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>138</v>
-      </c>
-      <c r="B28" s="10" t="s">
+      <c r="C28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" t="s">
+        <v>161</v>
+      </c>
+      <c r="F28">
+        <v>42.181314999999998</v>
+      </c>
+      <c r="G28">
+        <v>13.261710000000001</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28" t="s">
-        <v>10</v>
-      </c>
-      <c r="J28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>130</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>107</v>
-      </c>
       <c r="C29" t="s">
-        <v>131</v>
-      </c>
-      <c r="D29" t="s">
-        <v>11</v>
+        <v>127</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="E29" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="1">
-        <v>1</v>
+      <c r="F29" t="s">
+        <v>45</v>
       </c>
       <c r="G29" t="s">
-        <v>9</v>
+        <v>46</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
       </c>
       <c r="I29" t="s">
         <v>10</v>
@@ -1884,22 +2458,22 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>138</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>107</v>
+        <v>257</v>
+      </c>
+      <c r="B30" t="s">
+        <v>180</v>
       </c>
       <c r="C30" t="s">
-        <v>139</v>
+        <v>258</v>
       </c>
       <c r="D30" t="s">
         <v>66</v>
       </c>
       <c r="E30" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F30" s="1">
-        <v>59.084356</v>
+        <v>268120</v>
       </c>
       <c r="G30" t="s">
         <v>9</v>
@@ -1913,22 +2487,22 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>122</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>107</v>
+        <v>257</v>
+      </c>
+      <c r="B31" t="s">
+        <v>180</v>
       </c>
       <c r="C31" t="s">
-        <v>123</v>
+        <v>258</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F31" s="1">
-        <v>28.351316000000001</v>
+        <v>21050</v>
       </c>
       <c r="G31" t="s">
         <v>9</v>
@@ -1942,22 +2516,22 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>130</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>107</v>
+        <v>245</v>
+      </c>
+      <c r="B32" t="s">
+        <v>180</v>
       </c>
       <c r="C32" t="s">
-        <v>131</v>
+        <v>246</v>
       </c>
       <c r="D32" t="s">
         <v>66</v>
       </c>
       <c r="E32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F32" s="1">
-        <v>55.794356999999998</v>
+        <v>391440</v>
       </c>
       <c r="G32" t="s">
         <v>9</v>
@@ -1971,22 +2545,22 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>166</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>107</v>
+        <v>245</v>
+      </c>
+      <c r="B33" t="s">
+        <v>180</v>
       </c>
       <c r="C33" t="s">
-        <v>167</v>
+        <v>246</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F33" s="1">
-        <v>666</v>
+        <v>334126</v>
       </c>
       <c r="G33" t="s">
         <v>9</v>
@@ -1998,27 +2572,30 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>138</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>107</v>
+        <v>144</v>
+      </c>
+      <c r="B34" t="s">
+        <v>111</v>
       </c>
       <c r="C34" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>163</v>
-      </c>
-      <c r="F34" s="1">
-        <v>59.084356</v>
+        <v>17</v>
+      </c>
+      <c r="F34" t="s">
+        <v>87</v>
       </c>
       <c r="G34" t="s">
-        <v>9</v>
+        <v>88</v>
+      </c>
+      <c r="H34" t="b">
+        <v>1</v>
       </c>
       <c r="I34" t="s">
         <v>10</v>
@@ -2027,27 +2604,30 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>130</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>107</v>
+        <v>134</v>
+      </c>
+      <c r="B35" t="s">
+        <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="E35" t="s">
-        <v>163</v>
-      </c>
-      <c r="F35" s="1">
-        <v>55.794356999999998</v>
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>9</v>
+        <v>35</v>
+      </c>
+      <c r="H35" t="b">
+        <v>1</v>
       </c>
       <c r="I35" t="s">
         <v>10</v>
@@ -2056,27 +2636,30 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>126</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>107</v>
+        <v>134</v>
+      </c>
+      <c r="B36" t="s">
+        <v>111</v>
       </c>
       <c r="C36" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D36" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>163</v>
-      </c>
-      <c r="F36" s="1">
-        <v>42.181314999999998</v>
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
       </c>
       <c r="G36" t="s">
-        <v>9</v>
+        <v>99</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
       </c>
       <c r="I36" t="s">
         <v>10</v>
@@ -2087,22 +2670,22 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>166</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>107</v>
+        <v>364</v>
+      </c>
+      <c r="B37" t="s">
+        <v>180</v>
       </c>
       <c r="C37" t="s">
-        <v>167</v>
+        <v>365</v>
       </c>
       <c r="D37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F37" s="1">
-        <v>666</v>
+        <v>2478972</v>
       </c>
       <c r="G37" t="s">
         <v>9</v>
@@ -2116,28 +2699,25 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>310</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>311</v>
       </c>
       <c r="D38" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="E38" t="s">
-        <v>114</v>
-      </c>
-      <c r="F38" t="s">
-        <v>115</v>
+        <v>161</v>
+      </c>
+      <c r="F38" s="1">
+        <v>274831</v>
       </c>
       <c r="G38" t="s">
-        <v>176</v>
-      </c>
-      <c r="H38" t="b">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I38" t="s">
         <v>10</v>
@@ -2148,28 +2728,25 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>116</v>
+        <v>265</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="C39" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="D39" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="E39" t="s">
-        <v>114</v>
-      </c>
-      <c r="F39" t="s">
-        <v>115</v>
+        <v>161</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2905668</v>
       </c>
       <c r="G39" t="s">
-        <v>177</v>
-      </c>
-      <c r="H39" t="b">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I39" t="s">
         <v>10</v>
@@ -2178,27 +2755,27 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="D40" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
+        <v>15</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="H40" t="b">
         <v>1</v>
@@ -2207,30 +2784,30 @@
         <v>10</v>
       </c>
       <c r="J40" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="B41" t="s">
         <v>111</v>
       </c>
       <c r="C41" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="D41" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
+      </c>
+      <c r="F41" t="s">
+        <v>15</v>
       </c>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
@@ -2242,27 +2819,27 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B42" t="s">
         <v>111</v>
       </c>
       <c r="C42" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D42" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G42" t="s">
-        <v>35</v>
+        <v>108</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
@@ -2276,28 +2853,25 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>134</v>
+        <v>350</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="C43" t="s">
-        <v>135</v>
+        <v>351</v>
       </c>
       <c r="D43" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>36</v>
+        <v>161</v>
+      </c>
+      <c r="F43" s="1">
+        <v>3825099</v>
       </c>
       <c r="G43" t="s">
-        <v>35</v>
-      </c>
-      <c r="H43" t="b">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I43" t="s">
         <v>10</v>
@@ -2308,28 +2882,25 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>140</v>
+        <v>350</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="C44" t="s">
-        <v>141</v>
+        <v>351</v>
       </c>
       <c r="D44" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="E44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>36</v>
+        <v>161</v>
+      </c>
+      <c r="F44" s="1">
+        <v>2203320</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
-      </c>
-      <c r="H44" t="b">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I44" t="s">
         <v>10</v>
@@ -2338,27 +2909,27 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="D45" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
+      </c>
+      <c r="F45" t="s">
+        <v>15</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="H45" t="b">
         <v>1</v>
@@ -2367,18 +2938,18 @@
         <v>10</v>
       </c>
       <c r="J45" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="D46" t="s">
         <v>13</v>
@@ -2389,8 +2960,8 @@
       <c r="F46" t="s">
         <v>15</v>
       </c>
-      <c r="G46" s="8" t="s">
-        <v>99</v>
+      <c r="G46" t="s">
+        <v>100</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -2399,65 +2970,62 @@
         <v>10</v>
       </c>
       <c r="J46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E47" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>99</v>
+        <v>67</v>
+      </c>
+      <c r="F47" s="1">
+        <v>48.142079000000003</v>
+      </c>
+      <c r="G47">
+        <v>48.142079000000003</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="s">
         <v>10</v>
       </c>
       <c r="J47" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>128</v>
+        <v>290</v>
       </c>
       <c r="B48" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="C48" t="s">
-        <v>129</v>
+        <v>291</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="H48" t="b">
-        <v>1</v>
+        <v>161</v>
+      </c>
+      <c r="F48" s="1">
+        <v>3670400</v>
+      </c>
+      <c r="G48" t="s">
+        <v>9</v>
       </c>
       <c r="I48" t="s">
         <v>10</v>
@@ -2468,28 +3036,25 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>116</v>
+        <v>290</v>
       </c>
       <c r="B49" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="C49" t="s">
-        <v>115</v>
+        <v>291</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E49" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="H49" t="b">
-        <v>1</v>
+        <v>161</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2567492</v>
+      </c>
+      <c r="G49" t="s">
+        <v>9</v>
       </c>
       <c r="I49" t="s">
         <v>10</v>
@@ -2500,28 +3065,25 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>120</v>
+        <v>324</v>
       </c>
       <c r="B50" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="C50" t="s">
-        <v>121</v>
+        <v>325</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E50" t="s">
-        <v>17</v>
-      </c>
-      <c r="F50" t="s">
-        <v>87</v>
+        <v>161</v>
+      </c>
+      <c r="F50" s="1">
+        <v>315100</v>
       </c>
       <c r="G50" t="s">
-        <v>88</v>
-      </c>
-      <c r="H50" t="b">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I50" t="s">
         <v>10</v>
@@ -2532,28 +3094,25 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>146</v>
+        <v>324</v>
       </c>
       <c r="B51" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="C51" t="s">
-        <v>147</v>
+        <v>325</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E51" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51" t="s">
-        <v>87</v>
+        <v>161</v>
+      </c>
+      <c r="F51" s="1">
+        <v>947337</v>
       </c>
       <c r="G51" t="s">
-        <v>88</v>
-      </c>
-      <c r="H51" t="b">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I51" t="s">
         <v>10</v>
@@ -2562,30 +3121,30 @@
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>225</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="C52" t="s">
-        <v>115</v>
+        <v>226</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="E52" t="s">
-        <v>17</v>
-      </c>
-      <c r="F52" t="s">
-        <v>89</v>
-      </c>
-      <c r="G52" t="s">
-        <v>88</v>
+        <v>108</v>
+      </c>
+      <c r="F52" s="12">
+        <v>1</v>
+      </c>
+      <c r="G52" s="12">
+        <v>1</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="s">
         <v>10</v>
@@ -2596,28 +3155,25 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>140</v>
+        <v>334</v>
       </c>
       <c r="B53" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="C53" t="s">
-        <v>141</v>
+        <v>335</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E53" t="s">
-        <v>17</v>
-      </c>
-      <c r="F53" t="s">
-        <v>87</v>
+        <v>161</v>
+      </c>
+      <c r="F53" s="1">
+        <v>350549</v>
       </c>
       <c r="G53" t="s">
-        <v>88</v>
-      </c>
-      <c r="H53" t="b">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I53" t="s">
         <v>10</v>
@@ -2628,28 +3184,25 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>148</v>
+        <v>334</v>
       </c>
       <c r="B54" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="C54" t="s">
-        <v>149</v>
+        <v>335</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E54" t="s">
-        <v>17</v>
-      </c>
-      <c r="F54" t="s">
-        <v>18</v>
+        <v>161</v>
+      </c>
+      <c r="F54" s="1">
+        <v>328380</v>
       </c>
       <c r="G54" t="s">
-        <v>88</v>
-      </c>
-      <c r="H54" t="b">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I54" t="s">
         <v>10</v>
@@ -2660,13 +3213,13 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="C55" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="D55" t="s">
         <v>16</v>
@@ -2674,14 +3227,11 @@
       <c r="E55" t="s">
         <v>17</v>
       </c>
-      <c r="F55" t="s">
-        <v>85</v>
-      </c>
-      <c r="G55" t="s">
-        <v>88</v>
-      </c>
-      <c r="H55" t="b">
-        <v>1</v>
+      <c r="F55" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="I55" t="s">
         <v>10</v>
@@ -2692,28 +3242,25 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>152</v>
+        <v>207</v>
       </c>
       <c r="B56" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="C56" t="s">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E56" t="s">
-        <v>17</v>
-      </c>
-      <c r="F56" t="s">
-        <v>18</v>
+        <v>161</v>
+      </c>
+      <c r="F56" s="1">
+        <v>387342</v>
       </c>
       <c r="G56" t="s">
-        <v>85</v>
-      </c>
-      <c r="H56" t="b">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I56" t="s">
         <v>10</v>
@@ -2724,28 +3271,25 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>154</v>
+        <v>207</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="C57" t="s">
-        <v>155</v>
+        <v>208</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E57" t="s">
-        <v>17</v>
-      </c>
-      <c r="F57" t="s">
-        <v>18</v>
+        <v>161</v>
+      </c>
+      <c r="F57" s="1">
+        <v>365445</v>
       </c>
       <c r="G57" t="s">
-        <v>85</v>
-      </c>
-      <c r="H57" t="b">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I57" t="s">
         <v>10</v>
@@ -2756,28 +3300,25 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>156</v>
+        <v>300</v>
       </c>
       <c r="B58" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="C58" t="s">
-        <v>157</v>
+        <v>301</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E58" t="s">
-        <v>17</v>
-      </c>
-      <c r="F58" t="s">
-        <v>85</v>
+        <v>161</v>
+      </c>
+      <c r="F58" s="1">
+        <v>336481</v>
       </c>
       <c r="G58" t="s">
-        <v>85</v>
-      </c>
-      <c r="H58" t="b">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I58" t="s">
         <v>10</v>
@@ -2788,119 +3329,122 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>142</v>
+        <v>300</v>
       </c>
       <c r="B59" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="C59" t="s">
-        <v>143</v>
+        <v>301</v>
       </c>
       <c r="D59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E59" t="s">
+        <v>161</v>
+      </c>
+      <c r="F59" s="1">
+        <v>37951</v>
+      </c>
+      <c r="G59" t="s">
+        <v>9</v>
+      </c>
+      <c r="I59" t="s">
+        <v>10</v>
+      </c>
+      <c r="J59" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>201</v>
+      </c>
+      <c r="B60" t="s">
+        <v>192</v>
+      </c>
+      <c r="C60" t="s">
+        <v>202</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>10</v>
+      </c>
+      <c r="J60" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>201</v>
+      </c>
+      <c r="B61" t="s">
+        <v>192</v>
+      </c>
+      <c r="C61" t="s">
+        <v>202</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>10</v>
+      </c>
+      <c r="J61" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>201</v>
+      </c>
+      <c r="B62" t="s">
+        <v>192</v>
+      </c>
+      <c r="C62" t="s">
+        <v>202</v>
+      </c>
+      <c r="D62" t="s">
         <v>106</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E62" t="s">
         <v>108</v>
       </c>
-      <c r="F59" s="1">
-        <v>1</v>
-      </c>
-      <c r="G59">
+      <c r="F62" s="12">
+        <v>1</v>
+      </c>
+      <c r="G62" s="12">
+        <v>1</v>
+      </c>
+      <c r="H62" t="b">
         <v>0</v>
       </c>
-      <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="s">
-        <v>10</v>
-      </c>
-      <c r="J59" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>110</v>
-      </c>
-      <c r="B60" t="s">
-        <v>111</v>
-      </c>
-      <c r="C60" t="s">
-        <v>115</v>
-      </c>
-      <c r="D60" t="s">
-        <v>106</v>
-      </c>
-      <c r="E60" t="s">
-        <v>108</v>
-      </c>
-      <c r="F60" s="1">
-        <v>1</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="s">
-        <v>10</v>
-      </c>
-      <c r="J60" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>168</v>
-      </c>
-      <c r="B61" t="s">
-        <v>169</v>
-      </c>
-      <c r="C61" t="s">
-        <v>170</v>
-      </c>
-      <c r="D61" t="s">
-        <v>66</v>
-      </c>
-      <c r="E61" t="s">
-        <v>163</v>
-      </c>
-      <c r="F61" s="1">
-        <v>49.034357</v>
-      </c>
-      <c r="G61" t="s">
-        <v>9</v>
-      </c>
-      <c r="I61" t="s">
-        <v>10</v>
-      </c>
-      <c r="J61" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>164</v>
-      </c>
-      <c r="B62" t="s">
-        <v>107</v>
-      </c>
-      <c r="C62" t="s">
-        <v>165</v>
-      </c>
-      <c r="D62" t="s">
-        <v>66</v>
-      </c>
-      <c r="E62" t="s">
-        <v>163</v>
-      </c>
-      <c r="F62" s="1">
-        <v>26.561315</v>
-      </c>
-      <c r="G62" t="s">
-        <v>9</v>
-      </c>
       <c r="I62" t="s">
         <v>10</v>
       </c>
@@ -2908,27 +3452,30 @@
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="B63" t="s">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="C63" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="D63" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E63" t="s">
-        <v>163</v>
-      </c>
-      <c r="F63" s="1">
-        <v>26.561315</v>
-      </c>
-      <c r="G63" t="s">
-        <v>9</v>
+        <v>160</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
       </c>
       <c r="I63" t="s">
         <v>10</v>
@@ -2937,27 +3484,30 @@
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="B64" t="s">
-        <v>107</v>
+        <v>196</v>
       </c>
       <c r="C64" t="s">
-        <v>137</v>
+        <v>206</v>
       </c>
       <c r="D64" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E64" t="s">
         <v>12</v>
       </c>
-      <c r="F64" s="1">
-        <v>1</v>
-      </c>
-      <c r="G64" t="s">
-        <v>9</v>
+      <c r="F64" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
       </c>
       <c r="I64" t="s">
         <v>10</v>
@@ -2966,27 +3516,30 @@
         <v>109</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="B65" t="s">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="C65" t="s">
-        <v>125</v>
-      </c>
-      <c r="D65" t="s">
-        <v>11</v>
+        <v>193</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="E65" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="1">
-        <v>1</v>
-      </c>
-      <c r="G65" t="s">
-        <v>9</v>
+      <c r="F65" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
       </c>
       <c r="I65" t="s">
         <v>10</v>
@@ -2997,22 +3550,22 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>124</v>
+        <v>185</v>
       </c>
       <c r="B66" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="C66" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="D66" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="E66" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="1">
-        <v>1</v>
+        <v>114</v>
+      </c>
+      <c r="F66" t="s">
+        <v>184</v>
       </c>
       <c r="G66" t="s">
         <v>9</v>
@@ -3026,22 +3579,22 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>124</v>
+        <v>185</v>
       </c>
       <c r="B67" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="C67" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="D67" t="s">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F67" s="1">
-        <v>29.521312999999999</v>
+        <v>265790</v>
       </c>
       <c r="G67" t="s">
         <v>9</v>
@@ -3055,200 +3608,5162 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>48</v>
+        <v>185</v>
       </c>
       <c r="B68" t="s">
-        <v>49</v>
+        <v>180</v>
       </c>
       <c r="C68" t="s">
-        <v>50</v>
+        <v>184</v>
       </c>
       <c r="D68" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="E68" t="s">
+        <v>161</v>
+      </c>
+      <c r="F68" s="1">
+        <v>188225</v>
+      </c>
+      <c r="G68" t="s">
+        <v>9</v>
+      </c>
+      <c r="I68" t="s">
+        <v>10</v>
+      </c>
+      <c r="J68" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>209</v>
+      </c>
+      <c r="B69" t="s">
+        <v>111</v>
+      </c>
+      <c r="C69" t="s">
+        <v>210</v>
+      </c>
+      <c r="D69" t="s">
+        <v>106</v>
+      </c>
+      <c r="E69" t="s">
+        <v>108</v>
+      </c>
+      <c r="F69" s="12">
+        <v>1</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I69" t="s">
+        <v>10</v>
+      </c>
+      <c r="J69" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>209</v>
+      </c>
+      <c r="B70" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" t="s">
+        <v>210</v>
+      </c>
+      <c r="D70" t="s">
+        <v>77</v>
+      </c>
+      <c r="E70" t="s">
+        <v>160</v>
+      </c>
+      <c r="F70" s="12">
+        <v>17</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I70" t="s">
+        <v>10</v>
+      </c>
+      <c r="J70" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>239</v>
+      </c>
+      <c r="B71" t="s">
+        <v>111</v>
+      </c>
+      <c r="C71" t="s">
+        <v>240</v>
+      </c>
+      <c r="D71" t="s">
+        <v>77</v>
+      </c>
+      <c r="E71" t="s">
+        <v>160</v>
+      </c>
+      <c r="F71" s="1">
         <v>12</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G68" t="s">
-        <v>34</v>
-      </c>
-      <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="s">
-        <v>10</v>
-      </c>
-      <c r="J68" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>48</v>
-      </c>
-      <c r="B69" t="s">
-        <v>49</v>
-      </c>
-      <c r="C69" t="s">
-        <v>50</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E69" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G69" t="s">
-        <v>35</v>
-      </c>
-      <c r="H69" t="b">
-        <v>1</v>
-      </c>
-      <c r="I69" t="s">
-        <v>10</v>
-      </c>
-      <c r="J69" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>48</v>
-      </c>
-      <c r="B70" t="s">
-        <v>49</v>
-      </c>
-      <c r="C70" t="s">
-        <v>50</v>
-      </c>
-      <c r="D70" t="s">
-        <v>80</v>
-      </c>
-      <c r="E70" t="s">
-        <v>17</v>
-      </c>
-      <c r="F70" t="s">
-        <v>81</v>
-      </c>
-      <c r="G70" t="s">
-        <v>83</v>
-      </c>
-      <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="s">
-        <v>10</v>
-      </c>
-      <c r="J70" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>48</v>
-      </c>
-      <c r="B71" t="s">
-        <v>49</v>
-      </c>
-      <c r="C71" t="s">
-        <v>50</v>
-      </c>
-      <c r="D71" t="s">
-        <v>16</v>
-      </c>
-      <c r="E71" t="s">
-        <v>17</v>
-      </c>
-      <c r="F71" t="s">
-        <v>18</v>
-      </c>
       <c r="G71" t="s">
-        <v>85</v>
-      </c>
-      <c r="H71" t="b">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I71" t="s">
         <v>10</v>
       </c>
       <c r="J71" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>64</v>
+        <v>261</v>
       </c>
       <c r="B72" t="s">
-        <v>49</v>
+        <v>180</v>
       </c>
       <c r="C72" t="s">
-        <v>65</v>
+        <v>262</v>
       </c>
       <c r="D72" t="s">
         <v>66</v>
       </c>
       <c r="E72" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="F72" s="1">
-        <v>48.142079000000003</v>
-      </c>
-      <c r="G72">
-        <v>48.142079000000003</v>
-      </c>
-      <c r="H72" t="b">
-        <v>0</v>
+        <v>29486</v>
+      </c>
+      <c r="G72" t="s">
+        <v>9</v>
       </c>
       <c r="I72" t="s">
         <v>10</v>
       </c>
       <c r="J72" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>51</v>
+        <v>261</v>
       </c>
       <c r="B73" t="s">
-        <v>49</v>
+        <v>180</v>
       </c>
       <c r="C73" t="s">
-        <v>65</v>
+        <v>262</v>
       </c>
       <c r="D73" t="s">
         <v>68</v>
       </c>
       <c r="E73" t="s">
+        <v>161</v>
+      </c>
+      <c r="F73" s="1">
+        <v>209631</v>
+      </c>
+      <c r="G73" t="s">
+        <v>9</v>
+      </c>
+      <c r="I73" t="s">
+        <v>10</v>
+      </c>
+      <c r="J73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>231</v>
+      </c>
+      <c r="B74" t="s">
+        <v>192</v>
+      </c>
+      <c r="C74" t="s">
+        <v>232</v>
+      </c>
+      <c r="D74" t="s">
+        <v>75</v>
+      </c>
+      <c r="E74" t="s">
+        <v>160</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
+        <v>10</v>
+      </c>
+      <c r="J74" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>276</v>
+      </c>
+      <c r="B75" t="s">
+        <v>180</v>
+      </c>
+      <c r="C75" t="s">
+        <v>277</v>
+      </c>
+      <c r="D75" t="s">
+        <v>66</v>
+      </c>
+      <c r="E75" t="s">
+        <v>161</v>
+      </c>
+      <c r="F75" t="s">
+        <v>278</v>
+      </c>
+      <c r="G75" t="s">
+        <v>9</v>
+      </c>
+      <c r="I75" t="s">
+        <v>10</v>
+      </c>
+      <c r="J75" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>276</v>
+      </c>
+      <c r="B76" t="s">
+        <v>180</v>
+      </c>
+      <c r="C76" t="s">
+        <v>277</v>
+      </c>
+      <c r="D76" t="s">
+        <v>68</v>
+      </c>
+      <c r="E76" t="s">
+        <v>161</v>
+      </c>
+      <c r="F76" t="s">
+        <v>278</v>
+      </c>
+      <c r="G76" t="s">
+        <v>9</v>
+      </c>
+      <c r="I76" t="s">
+        <v>10</v>
+      </c>
+      <c r="J76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>197</v>
+      </c>
+      <c r="B77" t="s">
+        <v>111</v>
+      </c>
+      <c r="C77" t="s">
+        <v>198</v>
+      </c>
+      <c r="D77" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="12">
+        <v>1</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I77" t="s">
+        <v>10</v>
+      </c>
+      <c r="J77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>197</v>
+      </c>
+      <c r="B78" t="s">
+        <v>111</v>
+      </c>
+      <c r="C78" t="s">
+        <v>198</v>
+      </c>
+      <c r="D78" t="s">
+        <v>106</v>
+      </c>
+      <c r="E78" t="s">
+        <v>108</v>
+      </c>
+      <c r="F78" s="12">
+        <v>1</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I78" t="s">
+        <v>10</v>
+      </c>
+      <c r="J78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>197</v>
+      </c>
+      <c r="B79" t="s">
+        <v>111</v>
+      </c>
+      <c r="C79" t="s">
+        <v>198</v>
+      </c>
+      <c r="D79" t="s">
+        <v>77</v>
+      </c>
+      <c r="E79" t="s">
+        <v>160</v>
+      </c>
+      <c r="F79" s="12">
+        <v>16</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I79" t="s">
+        <v>10</v>
+      </c>
+      <c r="J79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>178</v>
+      </c>
+      <c r="B80" t="s">
+        <v>111</v>
+      </c>
+      <c r="C80" t="s">
+        <v>176</v>
+      </c>
+      <c r="D80" t="s">
+        <v>113</v>
+      </c>
+      <c r="E80" t="s">
+        <v>114</v>
+      </c>
+      <c r="F80" t="s">
+        <v>177</v>
+      </c>
+      <c r="G80" t="s">
+        <v>9</v>
+      </c>
+      <c r="I80" t="s">
+        <v>10</v>
+      </c>
+      <c r="J80" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>237</v>
+      </c>
+      <c r="B81" t="s">
+        <v>192</v>
+      </c>
+      <c r="C81" t="s">
+        <v>238</v>
+      </c>
+      <c r="D81" t="s">
+        <v>77</v>
+      </c>
+      <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" s="12">
+        <v>10</v>
+      </c>
+      <c r="G81" s="12">
+        <v>10</v>
+      </c>
+      <c r="H81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81" t="s">
+        <v>10</v>
+      </c>
+      <c r="J81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>360</v>
+      </c>
+      <c r="B82" t="s">
+        <v>180</v>
+      </c>
+      <c r="C82" t="s">
+        <v>361</v>
+      </c>
+      <c r="D82" t="s">
+        <v>68</v>
+      </c>
+      <c r="E82" t="s">
+        <v>161</v>
+      </c>
+      <c r="F82" s="1">
+        <v>2904825</v>
+      </c>
+      <c r="G82" t="s">
+        <v>9</v>
+      </c>
+      <c r="I82" t="s">
+        <v>10</v>
+      </c>
+      <c r="J82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>348</v>
+      </c>
+      <c r="B83" t="s">
+        <v>180</v>
+      </c>
+      <c r="C83" t="s">
+        <v>349</v>
+      </c>
+      <c r="D83" t="s">
+        <v>66</v>
+      </c>
+      <c r="E83" t="s">
+        <v>161</v>
+      </c>
+      <c r="F83" s="1">
+        <v>3052778</v>
+      </c>
+      <c r="G83" t="s">
+        <v>9</v>
+      </c>
+      <c r="I83" t="s">
+        <v>10</v>
+      </c>
+      <c r="J83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>348</v>
+      </c>
+      <c r="B84" t="s">
+        <v>180</v>
+      </c>
+      <c r="C84" t="s">
+        <v>349</v>
+      </c>
+      <c r="D84" t="s">
+        <v>68</v>
+      </c>
+      <c r="E84" t="s">
+        <v>161</v>
+      </c>
+      <c r="F84" s="1">
+        <v>9513889</v>
+      </c>
+      <c r="G84" t="s">
+        <v>9</v>
+      </c>
+      <c r="I84" t="s">
+        <v>10</v>
+      </c>
+      <c r="J84" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>328</v>
+      </c>
+      <c r="B85" t="s">
+        <v>180</v>
+      </c>
+      <c r="C85" t="s">
+        <v>329</v>
+      </c>
+      <c r="D85" t="s">
+        <v>66</v>
+      </c>
+      <c r="E85" t="s">
+        <v>161</v>
+      </c>
+      <c r="F85" s="1">
+        <v>322249</v>
+      </c>
+      <c r="G85" t="s">
+        <v>9</v>
+      </c>
+      <c r="I85" t="s">
+        <v>10</v>
+      </c>
+      <c r="J85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>328</v>
+      </c>
+      <c r="B86" t="s">
+        <v>180</v>
+      </c>
+      <c r="C86" t="s">
+        <v>329</v>
+      </c>
+      <c r="D86" t="s">
+        <v>68</v>
+      </c>
+      <c r="E86" t="s">
+        <v>161</v>
+      </c>
+      <c r="F86" s="1">
+        <v>44141</v>
+      </c>
+      <c r="G86" t="s">
+        <v>9</v>
+      </c>
+      <c r="I86" t="s">
+        <v>10</v>
+      </c>
+      <c r="J86" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>366</v>
+      </c>
+      <c r="B87" t="s">
+        <v>180</v>
+      </c>
+      <c r="C87" t="s">
+        <v>367</v>
+      </c>
+      <c r="D87" t="s">
+        <v>68</v>
+      </c>
+      <c r="E87" t="s">
+        <v>161</v>
+      </c>
+      <c r="F87" s="1">
+        <v>2869088</v>
+      </c>
+      <c r="G87" t="s">
+        <v>9</v>
+      </c>
+      <c r="I87" t="s">
+        <v>10</v>
+      </c>
+      <c r="J87" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>298</v>
+      </c>
+      <c r="B88" t="s">
+        <v>180</v>
+      </c>
+      <c r="C88" t="s">
+        <v>299</v>
+      </c>
+      <c r="D88" t="s">
+        <v>66</v>
+      </c>
+      <c r="E88" t="s">
+        <v>161</v>
+      </c>
+      <c r="F88" s="1">
+        <v>323610</v>
+      </c>
+      <c r="G88" t="s">
+        <v>9</v>
+      </c>
+      <c r="I88" t="s">
+        <v>10</v>
+      </c>
+      <c r="J88" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>298</v>
+      </c>
+      <c r="B89" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89" t="s">
+        <v>299</v>
+      </c>
+      <c r="D89" t="s">
+        <v>68</v>
+      </c>
+      <c r="E89" t="s">
+        <v>161</v>
+      </c>
+      <c r="F89" s="1">
+        <v>352435</v>
+      </c>
+      <c r="G89" t="s">
+        <v>9</v>
+      </c>
+      <c r="I89" t="s">
+        <v>10</v>
+      </c>
+      <c r="J89" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>267</v>
+      </c>
+      <c r="B90" t="s">
+        <v>180</v>
+      </c>
+      <c r="C90" t="s">
+        <v>268</v>
+      </c>
+      <c r="D90" t="s">
+        <v>66</v>
+      </c>
+      <c r="E90" t="s">
+        <v>161</v>
+      </c>
+      <c r="F90" t="s">
+        <v>269</v>
+      </c>
+      <c r="G90" t="s">
+        <v>9</v>
+      </c>
+      <c r="I90" t="s">
+        <v>10</v>
+      </c>
+      <c r="J90" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>267</v>
+      </c>
+      <c r="B91" t="s">
+        <v>180</v>
+      </c>
+      <c r="C91" t="s">
+        <v>268</v>
+      </c>
+      <c r="D91" t="s">
+        <v>68</v>
+      </c>
+      <c r="E91" t="s">
+        <v>161</v>
+      </c>
+      <c r="F91" t="s">
+        <v>269</v>
+      </c>
+      <c r="G91" t="s">
+        <v>9</v>
+      </c>
+      <c r="I91" t="s">
+        <v>10</v>
+      </c>
+      <c r="J91" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>146</v>
+      </c>
+      <c r="B92" t="s">
+        <v>111</v>
+      </c>
+      <c r="C92" t="s">
+        <v>147</v>
+      </c>
+      <c r="D92" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92" t="s">
+        <v>17</v>
+      </c>
+      <c r="F92" t="s">
+        <v>18</v>
+      </c>
+      <c r="G92" t="s">
+        <v>88</v>
+      </c>
+      <c r="H92" t="b">
+        <v>1</v>
+      </c>
+      <c r="I92" t="s">
+        <v>10</v>
+      </c>
+      <c r="J92" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>263</v>
+      </c>
+      <c r="B93" t="s">
+        <v>180</v>
+      </c>
+      <c r="C93" t="s">
+        <v>264</v>
+      </c>
+      <c r="D93" t="s">
+        <v>66</v>
+      </c>
+      <c r="E93" t="s">
+        <v>161</v>
+      </c>
+      <c r="F93" s="1">
+        <v>379857</v>
+      </c>
+      <c r="G93" t="s">
+        <v>9</v>
+      </c>
+      <c r="I93" t="s">
+        <v>10</v>
+      </c>
+      <c r="J93" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>263</v>
+      </c>
+      <c r="B94" t="s">
+        <v>180</v>
+      </c>
+      <c r="C94" t="s">
+        <v>264</v>
+      </c>
+      <c r="D94" t="s">
+        <v>68</v>
+      </c>
+      <c r="E94" t="s">
+        <v>161</v>
+      </c>
+      <c r="F94" s="1">
+        <v>329577</v>
+      </c>
+      <c r="G94" t="s">
+        <v>9</v>
+      </c>
+      <c r="I94" t="s">
+        <v>10</v>
+      </c>
+      <c r="J94" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>138</v>
+      </c>
+      <c r="B95" t="s">
+        <v>111</v>
+      </c>
+      <c r="C95" t="s">
+        <v>139</v>
+      </c>
+      <c r="D95" t="s">
+        <v>23</v>
+      </c>
+      <c r="E95" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" t="s">
+        <v>36</v>
+      </c>
+      <c r="G95" t="s">
+        <v>35</v>
+      </c>
+      <c r="H95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I95" t="s">
+        <v>10</v>
+      </c>
+      <c r="J95" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>138</v>
+      </c>
+      <c r="B96" t="s">
+        <v>111</v>
+      </c>
+      <c r="C96" t="s">
+        <v>139</v>
+      </c>
+      <c r="D96" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96" t="s">
+        <v>17</v>
+      </c>
+      <c r="F96" t="s">
+        <v>87</v>
+      </c>
+      <c r="G96" t="s">
+        <v>88</v>
+      </c>
+      <c r="H96" t="b">
+        <v>1</v>
+      </c>
+      <c r="I96" t="s">
+        <v>10</v>
+      </c>
+      <c r="J96" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>288</v>
+      </c>
+      <c r="B97" t="s">
+        <v>180</v>
+      </c>
+      <c r="C97" t="s">
+        <v>289</v>
+      </c>
+      <c r="D97" t="s">
+        <v>66</v>
+      </c>
+      <c r="E97" t="s">
+        <v>161</v>
+      </c>
+      <c r="F97" s="1">
+        <v>361697</v>
+      </c>
+      <c r="G97" t="s">
+        <v>9</v>
+      </c>
+      <c r="I97" t="s">
+        <v>10</v>
+      </c>
+      <c r="J97" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>288</v>
+      </c>
+      <c r="B98" t="s">
+        <v>180</v>
+      </c>
+      <c r="C98" t="s">
+        <v>289</v>
+      </c>
+      <c r="D98" t="s">
+        <v>68</v>
+      </c>
+      <c r="E98" t="s">
+        <v>161</v>
+      </c>
+      <c r="F98" s="1">
+        <v>315585</v>
+      </c>
+      <c r="G98" t="s">
+        <v>9</v>
+      </c>
+      <c r="I98" t="s">
+        <v>10</v>
+      </c>
+      <c r="J98" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>282</v>
+      </c>
+      <c r="B99" t="s">
+        <v>180</v>
+      </c>
+      <c r="C99" t="s">
+        <v>283</v>
+      </c>
+      <c r="D99" t="s">
+        <v>66</v>
+      </c>
+      <c r="E99" t="s">
+        <v>161</v>
+      </c>
+      <c r="F99" t="s">
+        <v>284</v>
+      </c>
+      <c r="G99" t="s">
+        <v>9</v>
+      </c>
+      <c r="I99" t="s">
+        <v>10</v>
+      </c>
+      <c r="J99" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>282</v>
+      </c>
+      <c r="B100" t="s">
+        <v>180</v>
+      </c>
+      <c r="C100" t="s">
+        <v>283</v>
+      </c>
+      <c r="D100" t="s">
+        <v>68</v>
+      </c>
+      <c r="E100" t="s">
+        <v>161</v>
+      </c>
+      <c r="F100" t="s">
+        <v>284</v>
+      </c>
+      <c r="G100" t="s">
+        <v>9</v>
+      </c>
+      <c r="I100" t="s">
+        <v>10</v>
+      </c>
+      <c r="J100" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>292</v>
+      </c>
+      <c r="B101" t="s">
+        <v>180</v>
+      </c>
+      <c r="C101" t="s">
+        <v>293</v>
+      </c>
+      <c r="D101" t="s">
+        <v>66</v>
+      </c>
+      <c r="E101" t="s">
+        <v>161</v>
+      </c>
+      <c r="F101" s="1">
+        <v>300440</v>
+      </c>
+      <c r="G101" t="s">
+        <v>9</v>
+      </c>
+      <c r="I101" t="s">
+        <v>10</v>
+      </c>
+      <c r="J101" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C102" t="s">
+        <v>123</v>
+      </c>
+      <c r="D102" t="s">
+        <v>66</v>
+      </c>
+      <c r="E102" t="s">
+        <v>161</v>
+      </c>
+      <c r="F102">
+        <v>28.351316000000001</v>
+      </c>
+      <c r="G102">
+        <v>43.971319999999999</v>
+      </c>
+      <c r="H102" t="b">
+        <v>1</v>
+      </c>
+      <c r="I102" t="s">
+        <v>10</v>
+      </c>
+      <c r="J102" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C103" t="s">
+        <v>123</v>
+      </c>
+      <c r="D103" t="s">
+        <v>68</v>
+      </c>
+      <c r="E103" t="s">
+        <v>161</v>
+      </c>
+      <c r="F103">
+        <v>28.351316000000001</v>
+      </c>
+      <c r="G103">
+        <v>13.27454</v>
+      </c>
+      <c r="H103" t="b">
+        <v>1</v>
+      </c>
+      <c r="I103" t="s">
+        <v>10</v>
+      </c>
+      <c r="J103" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>122</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C104" t="s">
+        <v>123</v>
+      </c>
+      <c r="D104" t="s">
+        <v>20</v>
+      </c>
+      <c r="E104" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104" t="s">
+        <v>36</v>
+      </c>
+      <c r="G104" t="s">
+        <v>35</v>
+      </c>
+      <c r="H104" t="b">
+        <v>1</v>
+      </c>
+      <c r="I104" t="s">
+        <v>10</v>
+      </c>
+      <c r="J104" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>122</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C105" t="s">
+        <v>123</v>
+      </c>
+      <c r="D105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E105" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" t="s">
+        <v>36</v>
+      </c>
+      <c r="G105" t="s">
+        <v>35</v>
+      </c>
+      <c r="H105" t="b">
+        <v>1</v>
+      </c>
+      <c r="I105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J105" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>142</v>
+      </c>
+      <c r="B106" t="s">
+        <v>118</v>
+      </c>
+      <c r="C106" t="s">
+        <v>143</v>
+      </c>
+      <c r="D106" t="s">
+        <v>13</v>
+      </c>
+      <c r="E106" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" t="s">
+        <v>15</v>
+      </c>
+      <c r="G106" t="s">
+        <v>99</v>
+      </c>
+      <c r="H106" t="b">
+        <v>1</v>
+      </c>
+      <c r="I106" t="s">
+        <v>10</v>
+      </c>
+      <c r="J106" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>142</v>
+      </c>
+      <c r="B107" t="s">
+        <v>118</v>
+      </c>
+      <c r="C107" t="s">
+        <v>143</v>
+      </c>
+      <c r="D107" t="s">
+        <v>66</v>
+      </c>
+      <c r="E107" t="s">
+        <v>161</v>
+      </c>
+      <c r="F107" s="1">
+        <v>31.9648</v>
+      </c>
+      <c r="G107" s="1">
+        <v>44.077167000000003</v>
+      </c>
+      <c r="H107" t="b">
+        <v>1</v>
+      </c>
+      <c r="I107" t="s">
+        <v>10</v>
+      </c>
+      <c r="J107" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>142</v>
+      </c>
+      <c r="B108" t="s">
+        <v>118</v>
+      </c>
+      <c r="C108" t="s">
+        <v>143</v>
+      </c>
+      <c r="D108" t="s">
+        <v>68</v>
+      </c>
+      <c r="E108" t="s">
+        <v>161</v>
+      </c>
+      <c r="F108" s="1">
+        <v>35.841999999999999</v>
+      </c>
+      <c r="G108" s="1">
+        <v>13.612556</v>
+      </c>
+      <c r="H108" t="b">
+        <v>1</v>
+      </c>
+      <c r="I108" t="s">
+        <v>10</v>
+      </c>
+      <c r="J108" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>142</v>
+      </c>
+      <c r="B109" t="s">
+        <v>118</v>
+      </c>
+      <c r="C109" t="s">
+        <v>143</v>
+      </c>
+      <c r="D109" t="s">
+        <v>16</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F109" t="s">
+        <v>85</v>
+      </c>
+      <c r="G109" t="s">
+        <v>18</v>
+      </c>
+      <c r="H109" t="b">
+        <v>1</v>
+      </c>
+      <c r="I109" t="s">
+        <v>10</v>
+      </c>
+      <c r="J109" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>120</v>
+      </c>
+      <c r="B110" t="s">
+        <v>111</v>
+      </c>
+      <c r="C110" t="s">
+        <v>121</v>
+      </c>
+      <c r="D110" t="s">
+        <v>20</v>
+      </c>
+      <c r="E110" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" t="s">
+        <v>36</v>
+      </c>
+      <c r="G110" t="s">
+        <v>35</v>
+      </c>
+      <c r="H110" t="b">
+        <v>1</v>
+      </c>
+      <c r="I110" t="s">
+        <v>10</v>
+      </c>
+      <c r="J110" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>120</v>
+      </c>
+      <c r="B111" t="s">
+        <v>111</v>
+      </c>
+      <c r="C111" t="s">
+        <v>121</v>
+      </c>
+      <c r="D111" t="s">
+        <v>22</v>
+      </c>
+      <c r="E111" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" t="s">
+        <v>36</v>
+      </c>
+      <c r="G111" t="s">
+        <v>35</v>
+      </c>
+      <c r="H111" t="b">
+        <v>1</v>
+      </c>
+      <c r="I111" t="s">
+        <v>10</v>
+      </c>
+      <c r="J111" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>120</v>
+      </c>
+      <c r="B112" t="s">
+        <v>111</v>
+      </c>
+      <c r="C112" t="s">
+        <v>121</v>
+      </c>
+      <c r="D112" t="s">
+        <v>16</v>
+      </c>
+      <c r="E112" t="s">
+        <v>17</v>
+      </c>
+      <c r="F112" t="s">
+        <v>87</v>
+      </c>
+      <c r="G112" t="s">
+        <v>88</v>
+      </c>
+      <c r="H112" t="b">
+        <v>1</v>
+      </c>
+      <c r="I112" t="s">
+        <v>10</v>
+      </c>
+      <c r="J112" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>285</v>
+      </c>
+      <c r="B113" t="s">
+        <v>180</v>
+      </c>
+      <c r="C113" t="s">
+        <v>286</v>
+      </c>
+      <c r="D113" t="s">
+        <v>66</v>
+      </c>
+      <c r="E113" t="s">
+        <v>161</v>
+      </c>
+      <c r="F113" t="s">
+        <v>287</v>
+      </c>
+      <c r="G113" t="s">
+        <v>9</v>
+      </c>
+      <c r="I113" t="s">
+        <v>10</v>
+      </c>
+      <c r="J113" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>285</v>
+      </c>
+      <c r="B114" t="s">
+        <v>180</v>
+      </c>
+      <c r="C114" t="s">
+        <v>286</v>
+      </c>
+      <c r="D114" t="s">
+        <v>68</v>
+      </c>
+      <c r="E114" t="s">
+        <v>161</v>
+      </c>
+      <c r="F114" t="s">
+        <v>287</v>
+      </c>
+      <c r="G114" t="s">
+        <v>9</v>
+      </c>
+      <c r="I114" t="s">
+        <v>10</v>
+      </c>
+      <c r="J114" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>332</v>
+      </c>
+      <c r="B115" t="s">
+        <v>180</v>
+      </c>
+      <c r="C115" t="s">
+        <v>333</v>
+      </c>
+      <c r="D115" t="s">
+        <v>66</v>
+      </c>
+      <c r="E115" t="s">
+        <v>161</v>
+      </c>
+      <c r="F115" s="1">
+        <v>344529</v>
+      </c>
+      <c r="G115" t="s">
+        <v>9</v>
+      </c>
+      <c r="I115" t="s">
+        <v>10</v>
+      </c>
+      <c r="J115" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>332</v>
+      </c>
+      <c r="B116" t="s">
+        <v>180</v>
+      </c>
+      <c r="C116" t="s">
+        <v>333</v>
+      </c>
+      <c r="D116" t="s">
+        <v>68</v>
+      </c>
+      <c r="E116" t="s">
+        <v>161</v>
+      </c>
+      <c r="F116" s="1">
+        <v>22063</v>
+      </c>
+      <c r="G116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I116" t="s">
+        <v>10</v>
+      </c>
+      <c r="J116" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>279</v>
+      </c>
+      <c r="B117" t="s">
+        <v>180</v>
+      </c>
+      <c r="C117" t="s">
+        <v>280</v>
+      </c>
+      <c r="D117" t="s">
+        <v>66</v>
+      </c>
+      <c r="E117" t="s">
+        <v>161</v>
+      </c>
+      <c r="F117" t="s">
+        <v>281</v>
+      </c>
+      <c r="G117" t="s">
+        <v>9</v>
+      </c>
+      <c r="I117" t="s">
+        <v>10</v>
+      </c>
+      <c r="J117" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>279</v>
+      </c>
+      <c r="B118" t="s">
+        <v>180</v>
+      </c>
+      <c r="C118" t="s">
+        <v>280</v>
+      </c>
+      <c r="D118" t="s">
+        <v>68</v>
+      </c>
+      <c r="E118" t="s">
+        <v>161</v>
+      </c>
+      <c r="F118" t="s">
+        <v>281</v>
+      </c>
+      <c r="G118" t="s">
+        <v>9</v>
+      </c>
+      <c r="I118" t="s">
+        <v>10</v>
+      </c>
+      <c r="J118" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>179</v>
+      </c>
+      <c r="B119" t="s">
+        <v>180</v>
+      </c>
+      <c r="C119" t="s">
+        <v>181</v>
+      </c>
+      <c r="D119" t="s">
+        <v>113</v>
+      </c>
+      <c r="E119" t="s">
+        <v>114</v>
+      </c>
+      <c r="F119" t="s">
+        <v>182</v>
+      </c>
+      <c r="G119" t="s">
+        <v>9</v>
+      </c>
+      <c r="I119" t="s">
+        <v>10</v>
+      </c>
+      <c r="J119" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>179</v>
+      </c>
+      <c r="B120" t="s">
+        <v>180</v>
+      </c>
+      <c r="C120" t="s">
+        <v>182</v>
+      </c>
+      <c r="D120" t="s">
+        <v>66</v>
+      </c>
+      <c r="E120" t="s">
+        <v>161</v>
+      </c>
+      <c r="F120" s="1">
+        <v>256238</v>
+      </c>
+      <c r="G120" t="s">
+        <v>9</v>
+      </c>
+      <c r="I120" t="s">
+        <v>10</v>
+      </c>
+      <c r="J120" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>312</v>
+      </c>
+      <c r="B121" t="s">
+        <v>180</v>
+      </c>
+      <c r="C121" t="s">
+        <v>313</v>
+      </c>
+      <c r="D121" t="s">
+        <v>66</v>
+      </c>
+      <c r="E121" t="s">
+        <v>161</v>
+      </c>
+      <c r="F121" s="1">
+        <v>284800</v>
+      </c>
+      <c r="G121" t="s">
+        <v>9</v>
+      </c>
+      <c r="I121" t="s">
+        <v>10</v>
+      </c>
+      <c r="J121" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>312</v>
+      </c>
+      <c r="B122" t="s">
+        <v>180</v>
+      </c>
+      <c r="C122" t="s">
+        <v>313</v>
+      </c>
+      <c r="D122" t="s">
+        <v>68</v>
+      </c>
+      <c r="E122" t="s">
+        <v>161</v>
+      </c>
+      <c r="F122" s="1">
+        <v>25800</v>
+      </c>
+      <c r="G122" t="s">
+        <v>9</v>
+      </c>
+      <c r="I122" t="s">
+        <v>10</v>
+      </c>
+      <c r="J122" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>227</v>
+      </c>
+      <c r="B123" t="s">
+        <v>192</v>
+      </c>
+      <c r="C123" t="s">
+        <v>228</v>
+      </c>
+      <c r="D123" t="s">
+        <v>75</v>
+      </c>
+      <c r="E123" t="s">
+        <v>160</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G123" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H123" t="b">
+        <v>1</v>
+      </c>
+      <c r="I123" t="s">
+        <v>10</v>
+      </c>
+      <c r="J123" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>308</v>
+      </c>
+      <c r="B124" t="s">
+        <v>180</v>
+      </c>
+      <c r="C124" t="s">
+        <v>309</v>
+      </c>
+      <c r="D124" t="s">
+        <v>66</v>
+      </c>
+      <c r="E124" t="s">
+        <v>161</v>
+      </c>
+      <c r="F124" s="1">
+        <v>240446</v>
+      </c>
+      <c r="G124" t="s">
+        <v>9</v>
+      </c>
+      <c r="I124" t="s">
+        <v>10</v>
+      </c>
+      <c r="J124" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>308</v>
+      </c>
+      <c r="B125" t="s">
+        <v>180</v>
+      </c>
+      <c r="C125" t="s">
+        <v>309</v>
+      </c>
+      <c r="D125" t="s">
+        <v>68</v>
+      </c>
+      <c r="E125" t="s">
+        <v>161</v>
+      </c>
+      <c r="F125" s="1">
+        <v>46657</v>
+      </c>
+      <c r="G125" t="s">
+        <v>9</v>
+      </c>
+      <c r="I125" t="s">
+        <v>10</v>
+      </c>
+      <c r="J125" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>229</v>
+      </c>
+      <c r="B126" t="s">
+        <v>192</v>
+      </c>
+      <c r="C126" t="s">
+        <v>230</v>
+      </c>
+      <c r="D126" t="s">
+        <v>77</v>
+      </c>
+      <c r="E126" t="s">
+        <v>160</v>
+      </c>
+      <c r="F126" s="12">
+        <v>8</v>
+      </c>
+      <c r="G126" s="12">
+        <v>36</v>
+      </c>
+      <c r="H126" t="b">
+        <v>1</v>
+      </c>
+      <c r="I126" t="s">
+        <v>10</v>
+      </c>
+      <c r="J126" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>229</v>
+      </c>
+      <c r="B127" t="s">
+        <v>192</v>
+      </c>
+      <c r="C127" t="s">
+        <v>230</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="E127" t="s">
+        <v>160</v>
+      </c>
+      <c r="F127" s="12">
+        <v>42</v>
+      </c>
+      <c r="G127" s="12">
+        <v>201</v>
+      </c>
+      <c r="H127" t="b">
+        <v>1</v>
+      </c>
+      <c r="I127" t="s">
+        <v>10</v>
+      </c>
+      <c r="J127" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>296</v>
+      </c>
+      <c r="B128" t="s">
+        <v>180</v>
+      </c>
+      <c r="C128" t="s">
+        <v>297</v>
+      </c>
+      <c r="D128" t="s">
+        <v>66</v>
+      </c>
+      <c r="E128" t="s">
+        <v>161</v>
+      </c>
+      <c r="F128" s="1">
+        <v>369900</v>
+      </c>
+      <c r="G128" t="s">
+        <v>9</v>
+      </c>
+      <c r="I128" t="s">
+        <v>10</v>
+      </c>
+      <c r="J128" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>296</v>
+      </c>
+      <c r="B129" t="s">
+        <v>180</v>
+      </c>
+      <c r="C129" t="s">
+        <v>297</v>
+      </c>
+      <c r="D129" t="s">
+        <v>68</v>
+      </c>
+      <c r="E129" t="s">
+        <v>161</v>
+      </c>
+      <c r="F129" s="1">
+        <v>345049</v>
+      </c>
+      <c r="G129" t="s">
+        <v>9</v>
+      </c>
+      <c r="I129" t="s">
+        <v>10</v>
+      </c>
+      <c r="J129" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>235</v>
+      </c>
+      <c r="B130" t="s">
+        <v>192</v>
+      </c>
+      <c r="C130" t="s">
+        <v>236</v>
+      </c>
+      <c r="D130" t="s">
+        <v>77</v>
+      </c>
+      <c r="E130" t="s">
+        <v>160</v>
+      </c>
+      <c r="F130" s="12">
+        <v>18</v>
+      </c>
+      <c r="G130" s="12">
+        <v>18</v>
+      </c>
+      <c r="H130" t="b">
+        <v>1</v>
+      </c>
+      <c r="I130" t="s">
+        <v>10</v>
+      </c>
+      <c r="J130" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" t="s">
+        <v>118</v>
+      </c>
+      <c r="C131" t="s">
+        <v>133</v>
+      </c>
+      <c r="D131" t="s">
+        <v>30</v>
+      </c>
+      <c r="E131" t="s">
+        <v>12</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G131" t="s">
+        <v>35</v>
+      </c>
+      <c r="H131" t="b">
+        <v>1</v>
+      </c>
+      <c r="I131" t="s">
+        <v>10</v>
+      </c>
+      <c r="J131" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132" t="s">
+        <v>118</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D132" t="s">
+        <v>170</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G132" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="H132" t="b">
+        <v>1</v>
+      </c>
+      <c r="I132" t="s">
+        <v>10</v>
+      </c>
+      <c r="J132" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>118</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D133" t="s">
+        <v>16</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F133" t="s">
+        <v>85</v>
+      </c>
+      <c r="G133" t="s">
+        <v>18</v>
+      </c>
+      <c r="H133" t="b">
+        <v>1</v>
+      </c>
+      <c r="I133" t="s">
+        <v>10</v>
+      </c>
+      <c r="J133" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>158</v>
+      </c>
+      <c r="B134" t="s">
+        <v>118</v>
+      </c>
+      <c r="C134" t="s">
+        <v>159</v>
+      </c>
+      <c r="D134" t="s">
+        <v>106</v>
+      </c>
+      <c r="E134" t="s">
+        <v>108</v>
+      </c>
+      <c r="F134" s="1">
+        <v>1</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134" t="b">
+        <v>1</v>
+      </c>
+      <c r="I134" t="s">
+        <v>10</v>
+      </c>
+      <c r="J134" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>158</v>
+      </c>
+      <c r="B135" t="s">
+        <v>118</v>
+      </c>
+      <c r="C135" t="s">
+        <v>159</v>
+      </c>
+      <c r="D135" t="s">
+        <v>75</v>
+      </c>
+      <c r="E135" t="s">
+        <v>160</v>
+      </c>
+      <c r="F135" t="s">
+        <v>76</v>
+      </c>
+      <c r="G135" t="s">
+        <v>78</v>
+      </c>
+      <c r="H135" t="b">
+        <v>1</v>
+      </c>
+      <c r="I135" t="s">
+        <v>10</v>
+      </c>
+      <c r="J135" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>158</v>
+      </c>
+      <c r="B136" t="s">
+        <v>118</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D136" t="s">
+        <v>170</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G136" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="H136" t="b">
+        <v>1</v>
+      </c>
+      <c r="I136" t="s">
+        <v>10</v>
+      </c>
+      <c r="J136" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C137" t="s">
+        <v>163</v>
+      </c>
+      <c r="D137" t="s">
+        <v>66</v>
+      </c>
+      <c r="E137" t="s">
+        <v>161</v>
+      </c>
+      <c r="F137">
+        <v>26.561315</v>
+      </c>
+      <c r="G137">
+        <v>44.606699999999996</v>
+      </c>
+      <c r="H137" t="b">
+        <v>1</v>
+      </c>
+      <c r="I137" t="s">
+        <v>10</v>
+      </c>
+      <c r="J137" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C138" t="s">
+        <v>163</v>
+      </c>
+      <c r="D138" t="s">
+        <v>68</v>
+      </c>
+      <c r="E138" t="s">
+        <v>161</v>
+      </c>
+      <c r="F138">
+        <v>26.561315</v>
+      </c>
+      <c r="G138">
+        <v>15.135626</v>
+      </c>
+      <c r="H138" t="b">
+        <v>1</v>
+      </c>
+      <c r="I138" t="s">
+        <v>10</v>
+      </c>
+      <c r="J138" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>338</v>
+      </c>
+      <c r="B139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C139" t="s">
+        <v>339</v>
+      </c>
+      <c r="D139" t="s">
+        <v>66</v>
+      </c>
+      <c r="E139" t="s">
+        <v>161</v>
+      </c>
+      <c r="F139" s="1">
+        <v>368508</v>
+      </c>
+      <c r="G139" t="s">
+        <v>9</v>
+      </c>
+      <c r="I139" t="s">
+        <v>10</v>
+      </c>
+      <c r="J139" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>338</v>
+      </c>
+      <c r="B140" t="s">
+        <v>180</v>
+      </c>
+      <c r="C140" t="s">
+        <v>339</v>
+      </c>
+      <c r="D140" t="s">
+        <v>68</v>
+      </c>
+      <c r="E140" t="s">
+        <v>161</v>
+      </c>
+      <c r="F140" s="1">
+        <v>317244</v>
+      </c>
+      <c r="G140" t="s">
+        <v>9</v>
+      </c>
+      <c r="I140" t="s">
+        <v>10</v>
+      </c>
+      <c r="J140" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>362</v>
+      </c>
+      <c r="B141" t="s">
+        <v>180</v>
+      </c>
+      <c r="C141" t="s">
+        <v>363</v>
+      </c>
+      <c r="D141" t="s">
+        <v>68</v>
+      </c>
+      <c r="E141" t="s">
+        <v>161</v>
+      </c>
+      <c r="F141" s="1">
+        <v>307764</v>
+      </c>
+      <c r="G141" t="s">
+        <v>9</v>
+      </c>
+      <c r="I141" t="s">
+        <v>10</v>
+      </c>
+      <c r="J141" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>255</v>
+      </c>
+      <c r="B142" t="s">
+        <v>180</v>
+      </c>
+      <c r="C142" t="s">
+        <v>256</v>
+      </c>
+      <c r="D142" t="s">
+        <v>66</v>
+      </c>
+      <c r="E142" t="s">
+        <v>161</v>
+      </c>
+      <c r="F142" s="1">
+        <v>4029913</v>
+      </c>
+      <c r="G142" t="s">
+        <v>9</v>
+      </c>
+      <c r="I142" t="s">
+        <v>10</v>
+      </c>
+      <c r="J142" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>255</v>
+      </c>
+      <c r="B143" t="s">
+        <v>180</v>
+      </c>
+      <c r="C143" t="s">
+        <v>256</v>
+      </c>
+      <c r="D143" t="s">
+        <v>68</v>
+      </c>
+      <c r="E143" t="s">
+        <v>161</v>
+      </c>
+      <c r="F143" s="1">
+        <v>2824943</v>
+      </c>
+      <c r="G143" t="s">
+        <v>9</v>
+      </c>
+      <c r="I143" t="s">
+        <v>10</v>
+      </c>
+      <c r="J143" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>354</v>
+      </c>
+      <c r="B144" t="s">
+        <v>180</v>
+      </c>
+      <c r="C144" t="s">
+        <v>355</v>
+      </c>
+      <c r="D144" t="s">
+        <v>66</v>
+      </c>
+      <c r="E144" t="s">
+        <v>161</v>
+      </c>
+      <c r="F144" t="s">
+        <v>356</v>
+      </c>
+      <c r="G144" t="s">
+        <v>9</v>
+      </c>
+      <c r="I144" t="s">
+        <v>10</v>
+      </c>
+      <c r="J144" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>354</v>
+      </c>
+      <c r="B145" t="s">
+        <v>180</v>
+      </c>
+      <c r="C145" t="s">
+        <v>355</v>
+      </c>
+      <c r="D145" t="s">
+        <v>68</v>
+      </c>
+      <c r="E145" t="s">
+        <v>161</v>
+      </c>
+      <c r="F145" t="s">
+        <v>356</v>
+      </c>
+      <c r="G145" t="s">
+        <v>9</v>
+      </c>
+      <c r="I145" t="s">
+        <v>10</v>
+      </c>
+      <c r="J145" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>314</v>
+      </c>
+      <c r="B146" t="s">
+        <v>180</v>
+      </c>
+      <c r="C146" t="s">
+        <v>315</v>
+      </c>
+      <c r="D146" t="s">
+        <v>66</v>
+      </c>
+      <c r="E146" t="s">
+        <v>161</v>
+      </c>
+      <c r="F146" s="1">
+        <v>286800</v>
+      </c>
+      <c r="G146" t="s">
+        <v>9</v>
+      </c>
+      <c r="I146" t="s">
+        <v>10</v>
+      </c>
+      <c r="J146" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>314</v>
+      </c>
+      <c r="B147" t="s">
+        <v>180</v>
+      </c>
+      <c r="C147" t="s">
+        <v>315</v>
+      </c>
+      <c r="D147" t="s">
+        <v>68</v>
+      </c>
+      <c r="E147" t="s">
+        <v>161</v>
+      </c>
+      <c r="F147" s="1">
+        <v>24251</v>
+      </c>
+      <c r="G147" t="s">
+        <v>9</v>
+      </c>
+      <c r="I147" t="s">
+        <v>10</v>
+      </c>
+      <c r="J147" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>304</v>
+      </c>
+      <c r="B148" t="s">
+        <v>180</v>
+      </c>
+      <c r="C148" t="s">
+        <v>305</v>
+      </c>
+      <c r="D148" t="s">
+        <v>66</v>
+      </c>
+      <c r="E148" t="s">
+        <v>161</v>
+      </c>
+      <c r="F148" s="1">
+        <v>355833</v>
+      </c>
+      <c r="G148" t="s">
+        <v>9</v>
+      </c>
+      <c r="I148" t="s">
+        <v>10</v>
+      </c>
+      <c r="J148" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>304</v>
+      </c>
+      <c r="B149" t="s">
+        <v>180</v>
+      </c>
+      <c r="C149" t="s">
+        <v>305</v>
+      </c>
+      <c r="D149" t="s">
+        <v>68</v>
+      </c>
+      <c r="E149" t="s">
+        <v>161</v>
+      </c>
+      <c r="F149" s="1">
+        <v>292021</v>
+      </c>
+      <c r="G149" t="s">
+        <v>9</v>
+      </c>
+      <c r="I149" t="s">
+        <v>10</v>
+      </c>
+      <c r="J149" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>190</v>
+      </c>
+      <c r="B150" t="s">
+        <v>180</v>
+      </c>
+      <c r="C150" t="s">
+        <v>181</v>
+      </c>
+      <c r="D150" t="s">
+        <v>113</v>
+      </c>
+      <c r="E150" t="s">
+        <v>114</v>
+      </c>
+      <c r="F150" t="s">
+        <v>182</v>
+      </c>
+      <c r="G150" t="s">
+        <v>9</v>
+      </c>
+      <c r="I150" t="s">
+        <v>10</v>
+      </c>
+      <c r="J150" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>190</v>
+      </c>
+      <c r="B151" t="s">
+        <v>180</v>
+      </c>
+      <c r="C151" t="s">
+        <v>182</v>
+      </c>
+      <c r="D151" t="s">
+        <v>66</v>
+      </c>
+      <c r="E151" t="s">
+        <v>161</v>
+      </c>
+      <c r="F151" s="1">
+        <v>856215</v>
+      </c>
+      <c r="G151" t="s">
+        <v>9</v>
+      </c>
+      <c r="I151" t="s">
+        <v>10</v>
+      </c>
+      <c r="J151" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>156</v>
+      </c>
+      <c r="B152" t="s">
+        <v>118</v>
+      </c>
+      <c r="C152" t="s">
+        <v>157</v>
+      </c>
+      <c r="D152" t="s">
+        <v>106</v>
+      </c>
+      <c r="E152" t="s">
+        <v>108</v>
+      </c>
+      <c r="F152" s="1">
+        <v>1</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="H152" t="b">
+        <v>1</v>
+      </c>
+      <c r="I152" t="s">
+        <v>10</v>
+      </c>
+      <c r="J152" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>54</v>
+      </c>
+      <c r="B153" t="s">
+        <v>52</v>
+      </c>
+      <c r="C153" t="s">
+        <v>55</v>
+      </c>
+      <c r="D153" t="s">
+        <v>13</v>
+      </c>
+      <c r="E153" t="s">
+        <v>14</v>
+      </c>
+      <c r="F153" t="s">
+        <v>15</v>
+      </c>
+      <c r="G153" t="s">
+        <v>100</v>
+      </c>
+      <c r="H153" t="b">
+        <v>1</v>
+      </c>
+      <c r="I153" t="s">
+        <v>10</v>
+      </c>
+      <c r="J153" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>189</v>
+      </c>
+      <c r="B154" t="s">
+        <v>180</v>
+      </c>
+      <c r="C154" t="s">
+        <v>187</v>
+      </c>
+      <c r="D154" t="s">
+        <v>113</v>
+      </c>
+      <c r="E154" t="s">
+        <v>114</v>
+      </c>
+      <c r="F154" t="s">
+        <v>188</v>
+      </c>
+      <c r="G154" t="s">
+        <v>9</v>
+      </c>
+      <c r="I154" t="s">
+        <v>10</v>
+      </c>
+      <c r="J154" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>189</v>
+      </c>
+      <c r="B155" t="s">
+        <v>180</v>
+      </c>
+      <c r="C155" t="s">
+        <v>188</v>
+      </c>
+      <c r="D155" t="s">
+        <v>66</v>
+      </c>
+      <c r="E155" t="s">
+        <v>161</v>
+      </c>
+      <c r="F155" s="1">
+        <v>322249</v>
+      </c>
+      <c r="G155" t="s">
+        <v>9</v>
+      </c>
+      <c r="I155" t="s">
+        <v>10</v>
+      </c>
+      <c r="J155" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>189</v>
+      </c>
+      <c r="B156" t="s">
+        <v>180</v>
+      </c>
+      <c r="C156" t="s">
+        <v>188</v>
+      </c>
+      <c r="D156" t="s">
+        <v>68</v>
+      </c>
+      <c r="E156" t="s">
+        <v>161</v>
+      </c>
+      <c r="F156" s="1">
+        <v>44141</v>
+      </c>
+      <c r="G156" t="s">
+        <v>9</v>
+      </c>
+      <c r="I156" t="s">
+        <v>10</v>
+      </c>
+      <c r="J156" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>186</v>
+      </c>
+      <c r="B157" t="s">
+        <v>180</v>
+      </c>
+      <c r="C157" t="s">
+        <v>187</v>
+      </c>
+      <c r="D157" t="s">
+        <v>113</v>
+      </c>
+      <c r="E157" t="s">
+        <v>114</v>
+      </c>
+      <c r="F157" t="s">
+        <v>188</v>
+      </c>
+      <c r="G157" t="s">
+        <v>9</v>
+      </c>
+      <c r="I157" t="s">
+        <v>10</v>
+      </c>
+      <c r="J157" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>186</v>
+      </c>
+      <c r="B158" t="s">
+        <v>180</v>
+      </c>
+      <c r="C158" t="s">
+        <v>188</v>
+      </c>
+      <c r="D158" t="s">
+        <v>66</v>
+      </c>
+      <c r="E158" t="s">
+        <v>161</v>
+      </c>
+      <c r="F158" s="1">
+        <v>304274</v>
+      </c>
+      <c r="G158" t="s">
+        <v>9</v>
+      </c>
+      <c r="I158" t="s">
+        <v>10</v>
+      </c>
+      <c r="J158" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>186</v>
+      </c>
+      <c r="B159" t="s">
+        <v>180</v>
+      </c>
+      <c r="C159" t="s">
+        <v>188</v>
+      </c>
+      <c r="D159" t="s">
+        <v>68</v>
+      </c>
+      <c r="E159" t="s">
+        <v>161</v>
+      </c>
+      <c r="F159" s="1">
+        <v>999957</v>
+      </c>
+      <c r="G159" t="s">
+        <v>9</v>
+      </c>
+      <c r="I159" t="s">
+        <v>10</v>
+      </c>
+      <c r="J159" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>62</v>
+      </c>
+      <c r="B160" t="s">
+        <v>52</v>
+      </c>
+      <c r="C160" t="s">
+        <v>63</v>
+      </c>
+      <c r="D160" t="s">
+        <v>13</v>
+      </c>
+      <c r="E160" t="s">
+        <v>14</v>
+      </c>
+      <c r="F160" t="s">
+        <v>15</v>
+      </c>
+      <c r="G160" t="s">
+        <v>100</v>
+      </c>
+      <c r="H160" t="b">
+        <v>1</v>
+      </c>
+      <c r="I160" t="s">
+        <v>10</v>
+      </c>
+      <c r="J160" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>221</v>
+      </c>
+      <c r="B161" t="s">
+        <v>192</v>
+      </c>
+      <c r="C161" t="s">
+        <v>222</v>
+      </c>
+      <c r="D161" t="s">
+        <v>106</v>
+      </c>
+      <c r="E161" t="s">
+        <v>108</v>
+      </c>
+      <c r="F161" s="12">
+        <v>1</v>
+      </c>
+      <c r="G161" s="12">
+        <v>1</v>
+      </c>
+      <c r="H161" t="b">
+        <v>0</v>
+      </c>
+      <c r="I161" t="s">
+        <v>10</v>
+      </c>
+      <c r="J161" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>241</v>
+      </c>
+      <c r="B162" t="s">
+        <v>111</v>
+      </c>
+      <c r="C162" t="s">
+        <v>242</v>
+      </c>
+      <c r="D162" t="s">
+        <v>243</v>
+      </c>
+      <c r="E162" t="s">
+        <v>244</v>
+      </c>
+      <c r="F162" s="1">
+        <v>5</v>
+      </c>
+      <c r="G162" t="s">
+        <v>9</v>
+      </c>
+      <c r="I162" t="s">
+        <v>10</v>
+      </c>
+      <c r="J162" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>306</v>
+      </c>
+      <c r="B163" t="s">
+        <v>180</v>
+      </c>
+      <c r="C163" t="s">
+        <v>307</v>
+      </c>
+      <c r="D163" t="s">
+        <v>66</v>
+      </c>
+      <c r="E163" t="s">
+        <v>161</v>
+      </c>
+      <c r="F163" s="1">
+        <v>343004</v>
+      </c>
+      <c r="G163" t="s">
+        <v>9</v>
+      </c>
+      <c r="I163" t="s">
+        <v>10</v>
+      </c>
+      <c r="J163" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>48</v>
+      </c>
+      <c r="B164" t="s">
+        <v>49</v>
+      </c>
+      <c r="C164" t="s">
+        <v>50</v>
+      </c>
+      <c r="D164" t="s">
+        <v>20</v>
+      </c>
+      <c r="E164" t="s">
+        <v>12</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G164" t="s">
+        <v>34</v>
+      </c>
+      <c r="H164" t="b">
+        <v>1</v>
+      </c>
+      <c r="I164" t="s">
+        <v>10</v>
+      </c>
+      <c r="J164" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>48</v>
+      </c>
+      <c r="B165" t="s">
+        <v>49</v>
+      </c>
+      <c r="C165" t="s">
+        <v>50</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E165" t="s">
+        <v>12</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G165" t="s">
+        <v>35</v>
+      </c>
+      <c r="H165" t="b">
+        <v>1</v>
+      </c>
+      <c r="I165" t="s">
+        <v>10</v>
+      </c>
+      <c r="J165" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>48</v>
+      </c>
+      <c r="B166" t="s">
+        <v>49</v>
+      </c>
+      <c r="C166" t="s">
+        <v>50</v>
+      </c>
+      <c r="D166" t="s">
+        <v>80</v>
+      </c>
+      <c r="E166" t="s">
+        <v>17</v>
+      </c>
+      <c r="F166" t="s">
+        <v>81</v>
+      </c>
+      <c r="G166" t="s">
+        <v>83</v>
+      </c>
+      <c r="H166" t="b">
+        <v>1</v>
+      </c>
+      <c r="I166" t="s">
+        <v>10</v>
+      </c>
+      <c r="J166" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>48</v>
+      </c>
+      <c r="B167" t="s">
+        <v>49</v>
+      </c>
+      <c r="C167" t="s">
+        <v>50</v>
+      </c>
+      <c r="D167" t="s">
+        <v>16</v>
+      </c>
+      <c r="E167" t="s">
+        <v>17</v>
+      </c>
+      <c r="F167" t="s">
+        <v>18</v>
+      </c>
+      <c r="G167" t="s">
+        <v>85</v>
+      </c>
+      <c r="H167" t="b">
+        <v>1</v>
+      </c>
+      <c r="I167" t="s">
+        <v>10</v>
+      </c>
+      <c r="J167" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>316</v>
+      </c>
+      <c r="B168" t="s">
+        <v>180</v>
+      </c>
+      <c r="C168" t="s">
+        <v>317</v>
+      </c>
+      <c r="D168" t="s">
+        <v>66</v>
+      </c>
+      <c r="E168" t="s">
+        <v>161</v>
+      </c>
+      <c r="F168" s="1">
+        <v>300036</v>
+      </c>
+      <c r="G168" t="s">
+        <v>9</v>
+      </c>
+      <c r="I168" t="s">
+        <v>10</v>
+      </c>
+      <c r="J168" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>247</v>
+      </c>
+      <c r="B169" t="s">
+        <v>180</v>
+      </c>
+      <c r="C169" t="s">
+        <v>248</v>
+      </c>
+      <c r="D169" t="s">
+        <v>66</v>
+      </c>
+      <c r="E169" t="s">
+        <v>161</v>
+      </c>
+      <c r="F169" s="1">
+        <v>342051</v>
+      </c>
+      <c r="G169" t="s">
+        <v>9</v>
+      </c>
+      <c r="I169" t="s">
+        <v>10</v>
+      </c>
+      <c r="J169" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>51</v>
+      </c>
+      <c r="B170" t="s">
+        <v>52</v>
+      </c>
+      <c r="C170" t="s">
+        <v>53</v>
+      </c>
+      <c r="D170" t="s">
+        <v>33</v>
+      </c>
+      <c r="E170" t="s">
+        <v>12</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G170" t="s">
+        <v>42</v>
+      </c>
+      <c r="H170" t="b">
+        <v>1</v>
+      </c>
+      <c r="I170" t="s">
+        <v>10</v>
+      </c>
+      <c r="J170" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>51</v>
+      </c>
+      <c r="B171" t="s">
+        <v>52</v>
+      </c>
+      <c r="C171" t="s">
+        <v>53</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E171" t="s">
+        <v>12</v>
+      </c>
+      <c r="F171" t="s">
+        <v>36</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H171" t="b">
+        <v>1</v>
+      </c>
+      <c r="I171" t="s">
+        <v>10</v>
+      </c>
+      <c r="J171" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>51</v>
+      </c>
+      <c r="B172" t="s">
+        <v>52</v>
+      </c>
+      <c r="C172" t="s">
+        <v>53</v>
+      </c>
+      <c r="D172" t="s">
+        <v>13</v>
+      </c>
+      <c r="E172" t="s">
+        <v>14</v>
+      </c>
+      <c r="F172" t="s">
+        <v>15</v>
+      </c>
+      <c r="G172" t="s">
+        <v>100</v>
+      </c>
+      <c r="H172" t="b">
+        <v>1</v>
+      </c>
+      <c r="I172" t="s">
+        <v>10</v>
+      </c>
+      <c r="J172" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>51</v>
+      </c>
+      <c r="B173" t="s">
+        <v>49</v>
+      </c>
+      <c r="C173" t="s">
+        <v>65</v>
+      </c>
+      <c r="D173" t="s">
+        <v>68</v>
+      </c>
+      <c r="E173" t="s">
         <v>67</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F173" s="1">
         <v>17.442419000000001</v>
       </c>
-      <c r="G73">
+      <c r="G173">
         <v>17.442419000000001</v>
       </c>
-      <c r="H73" t="b">
+      <c r="H173" t="b">
         <v>0</v>
       </c>
-      <c r="I73" t="s">
-        <v>10</v>
-      </c>
-      <c r="J73" t="s">
+      <c r="I173" t="s">
+        <v>10</v>
+      </c>
+      <c r="J173" t="s">
         <v>47</v>
       </c>
     </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>294</v>
+      </c>
+      <c r="B174" t="s">
+        <v>180</v>
+      </c>
+      <c r="C174" t="s">
+        <v>295</v>
+      </c>
+      <c r="D174" t="s">
+        <v>66</v>
+      </c>
+      <c r="E174" t="s">
+        <v>161</v>
+      </c>
+      <c r="F174" s="1">
+        <v>368161</v>
+      </c>
+      <c r="G174" t="s">
+        <v>9</v>
+      </c>
+      <c r="I174" t="s">
+        <v>10</v>
+      </c>
+      <c r="J174" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>294</v>
+      </c>
+      <c r="B175" t="s">
+        <v>180</v>
+      </c>
+      <c r="C175" t="s">
+        <v>295</v>
+      </c>
+      <c r="D175" t="s">
+        <v>68</v>
+      </c>
+      <c r="E175" t="s">
+        <v>161</v>
+      </c>
+      <c r="F175" s="1">
+        <v>259911</v>
+      </c>
+      <c r="G175" t="s">
+        <v>9</v>
+      </c>
+      <c r="I175" t="s">
+        <v>10</v>
+      </c>
+      <c r="J175" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>194</v>
+      </c>
+      <c r="B176" t="s">
+        <v>192</v>
+      </c>
+      <c r="C176" t="s">
+        <v>195</v>
+      </c>
+      <c r="D176" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E176" t="s">
+        <v>12</v>
+      </c>
+      <c r="F176" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G176" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H176" t="b">
+        <v>1</v>
+      </c>
+      <c r="I176" t="s">
+        <v>10</v>
+      </c>
+      <c r="J176" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>194</v>
+      </c>
+      <c r="B177" t="s">
+        <v>192</v>
+      </c>
+      <c r="C177" t="s">
+        <v>195</v>
+      </c>
+      <c r="D177" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E177" t="s">
+        <v>12</v>
+      </c>
+      <c r="F177" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G177" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H177" t="b">
+        <v>1</v>
+      </c>
+      <c r="I177" t="s">
+        <v>10</v>
+      </c>
+      <c r="J177" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>194</v>
+      </c>
+      <c r="B178" t="s">
+        <v>192</v>
+      </c>
+      <c r="C178" t="s">
+        <v>195</v>
+      </c>
+      <c r="D178" t="s">
+        <v>13</v>
+      </c>
+      <c r="E178" t="s">
+        <v>14</v>
+      </c>
+      <c r="F178" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G178" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H178" t="b">
+        <v>0</v>
+      </c>
+      <c r="I178" t="s">
+        <v>10</v>
+      </c>
+      <c r="J178" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>194</v>
+      </c>
+      <c r="B179" t="s">
+        <v>192</v>
+      </c>
+      <c r="C179" t="s">
+        <v>195</v>
+      </c>
+      <c r="D179" t="s">
+        <v>106</v>
+      </c>
+      <c r="E179" t="s">
+        <v>108</v>
+      </c>
+      <c r="F179" s="12">
+        <v>1</v>
+      </c>
+      <c r="G179" s="12">
+        <v>1</v>
+      </c>
+      <c r="H179" t="b">
+        <v>0</v>
+      </c>
+      <c r="I179" t="s">
+        <v>10</v>
+      </c>
+      <c r="J179" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>272</v>
+      </c>
+      <c r="B180" t="s">
+        <v>180</v>
+      </c>
+      <c r="C180" t="s">
+        <v>273</v>
+      </c>
+      <c r="D180" t="s">
+        <v>66</v>
+      </c>
+      <c r="E180" t="s">
+        <v>161</v>
+      </c>
+      <c r="F180" s="1">
+        <v>240446</v>
+      </c>
+      <c r="G180" t="s">
+        <v>9</v>
+      </c>
+      <c r="I180" t="s">
+        <v>10</v>
+      </c>
+      <c r="J180" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>272</v>
+      </c>
+      <c r="B181" t="s">
+        <v>180</v>
+      </c>
+      <c r="C181" t="s">
+        <v>273</v>
+      </c>
+      <c r="D181" t="s">
+        <v>68</v>
+      </c>
+      <c r="E181" t="s">
+        <v>161</v>
+      </c>
+      <c r="F181" s="1">
+        <v>46657</v>
+      </c>
+      <c r="G181" t="s">
+        <v>9</v>
+      </c>
+      <c r="I181" t="s">
+        <v>10</v>
+      </c>
+      <c r="J181" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>253</v>
+      </c>
+      <c r="B182" t="s">
+        <v>180</v>
+      </c>
+      <c r="C182" t="s">
+        <v>254</v>
+      </c>
+      <c r="D182" t="s">
+        <v>66</v>
+      </c>
+      <c r="E182" t="s">
+        <v>161</v>
+      </c>
+      <c r="F182" s="1">
+        <v>357962</v>
+      </c>
+      <c r="G182" t="s">
+        <v>9</v>
+      </c>
+      <c r="I182" t="s">
+        <v>10</v>
+      </c>
+      <c r="J182" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>253</v>
+      </c>
+      <c r="B183" t="s">
+        <v>180</v>
+      </c>
+      <c r="C183" t="s">
+        <v>254</v>
+      </c>
+      <c r="D183" t="s">
+        <v>68</v>
+      </c>
+      <c r="E183" t="s">
+        <v>161</v>
+      </c>
+      <c r="F183" s="1">
+        <v>914962</v>
+      </c>
+      <c r="G183" t="s">
+        <v>9</v>
+      </c>
+      <c r="I183" t="s">
+        <v>10</v>
+      </c>
+      <c r="J183" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>318</v>
+      </c>
+      <c r="B184" t="s">
+        <v>180</v>
+      </c>
+      <c r="C184" t="s">
+        <v>319</v>
+      </c>
+      <c r="D184" t="s">
+        <v>66</v>
+      </c>
+      <c r="E184" t="s">
+        <v>161</v>
+      </c>
+      <c r="F184" s="1">
+        <v>300493</v>
+      </c>
+      <c r="G184" t="s">
+        <v>9</v>
+      </c>
+      <c r="I184" t="s">
+        <v>10</v>
+      </c>
+      <c r="J184" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>219</v>
+      </c>
+      <c r="B185" t="s">
+        <v>192</v>
+      </c>
+      <c r="C185" t="s">
+        <v>220</v>
+      </c>
+      <c r="D185" t="s">
+        <v>106</v>
+      </c>
+      <c r="E185" t="s">
+        <v>108</v>
+      </c>
+      <c r="F185" s="12">
+        <v>1</v>
+      </c>
+      <c r="G185" s="12">
+        <v>1</v>
+      </c>
+      <c r="H185" t="b">
+        <v>0</v>
+      </c>
+      <c r="I185" t="s">
+        <v>10</v>
+      </c>
+      <c r="J185" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>219</v>
+      </c>
+      <c r="B186" t="s">
+        <v>192</v>
+      </c>
+      <c r="C186" t="s">
+        <v>220</v>
+      </c>
+      <c r="D186" t="s">
+        <v>75</v>
+      </c>
+      <c r="E186" t="s">
+        <v>160</v>
+      </c>
+      <c r="F186" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G186" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H186" t="b">
+        <v>1</v>
+      </c>
+      <c r="I186" t="s">
+        <v>10</v>
+      </c>
+      <c r="J186" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C187" t="s">
+        <v>165</v>
+      </c>
+      <c r="D187" t="s">
+        <v>66</v>
+      </c>
+      <c r="E187" t="s">
+        <v>161</v>
+      </c>
+      <c r="F187">
+        <v>666</v>
+      </c>
+      <c r="G187">
+        <v>44.063403000000001</v>
+      </c>
+      <c r="H187" t="b">
+        <v>1</v>
+      </c>
+      <c r="I187" t="s">
+        <v>10</v>
+      </c>
+      <c r="J187" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C188" t="s">
+        <v>165</v>
+      </c>
+      <c r="D188" t="s">
+        <v>68</v>
+      </c>
+      <c r="E188" t="s">
+        <v>161</v>
+      </c>
+      <c r="F188">
+        <v>666</v>
+      </c>
+      <c r="G188">
+        <v>13.121509</v>
+      </c>
+      <c r="H188" t="b">
+        <v>1</v>
+      </c>
+      <c r="I188" t="s">
+        <v>10</v>
+      </c>
+      <c r="J188" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>259</v>
+      </c>
+      <c r="B189" t="s">
+        <v>180</v>
+      </c>
+      <c r="C189" t="s">
+        <v>260</v>
+      </c>
+      <c r="D189" t="s">
+        <v>66</v>
+      </c>
+      <c r="E189" t="s">
+        <v>161</v>
+      </c>
+      <c r="F189" s="1">
+        <v>2944044</v>
+      </c>
+      <c r="G189" t="s">
+        <v>9</v>
+      </c>
+      <c r="I189" t="s">
+        <v>10</v>
+      </c>
+      <c r="J189" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C190" t="s">
+        <v>125</v>
+      </c>
+      <c r="D190" t="s">
+        <v>68</v>
+      </c>
+      <c r="E190" t="s">
+        <v>161</v>
+      </c>
+      <c r="F190">
+        <v>29.521312999999999</v>
+      </c>
+      <c r="G190">
+        <v>13.135229000000001</v>
+      </c>
+      <c r="H190" t="b">
+        <v>1</v>
+      </c>
+      <c r="I190" t="s">
+        <v>10</v>
+      </c>
+      <c r="J190" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C191" t="s">
+        <v>125</v>
+      </c>
+      <c r="D191" t="s">
+        <v>66</v>
+      </c>
+      <c r="E191" t="s">
+        <v>161</v>
+      </c>
+      <c r="F191">
+        <v>29.521312999999999</v>
+      </c>
+      <c r="G191">
+        <v>44.272700999999998</v>
+      </c>
+      <c r="H191" t="b">
+        <v>1</v>
+      </c>
+      <c r="I191" t="s">
+        <v>10</v>
+      </c>
+      <c r="J191" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C192" t="s">
+        <v>137</v>
+      </c>
+      <c r="D192" t="s">
+        <v>66</v>
+      </c>
+      <c r="E192" t="s">
+        <v>161</v>
+      </c>
+      <c r="F192">
+        <v>59.084356</v>
+      </c>
+      <c r="G192">
+        <v>43.949750000000002</v>
+      </c>
+      <c r="H192" t="b">
+        <v>1</v>
+      </c>
+      <c r="I192" t="s">
+        <v>10</v>
+      </c>
+      <c r="J192" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C193" t="s">
+        <v>137</v>
+      </c>
+      <c r="D193" t="s">
+        <v>68</v>
+      </c>
+      <c r="E193" t="s">
+        <v>161</v>
+      </c>
+      <c r="F193">
+        <v>59.084356</v>
+      </c>
+      <c r="G193">
+        <v>13.26817</v>
+      </c>
+      <c r="H193" t="b">
+        <v>1</v>
+      </c>
+      <c r="I193" t="s">
+        <v>10</v>
+      </c>
+      <c r="J193" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B194" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C194" t="s">
+        <v>137</v>
+      </c>
+      <c r="D194" t="s">
+        <v>369</v>
+      </c>
+      <c r="E194" t="s">
+        <v>368</v>
+      </c>
+      <c r="F194" t="s">
+        <v>370</v>
+      </c>
+      <c r="G194" t="s">
+        <v>371</v>
+      </c>
+      <c r="H194" t="b">
+        <v>1</v>
+      </c>
+      <c r="I194" t="s">
+        <v>10</v>
+      </c>
+      <c r="J194" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>136</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C195" t="s">
+        <v>137</v>
+      </c>
+      <c r="D195" t="s">
+        <v>23</v>
+      </c>
+      <c r="E195" t="s">
+        <v>12</v>
+      </c>
+      <c r="F195" t="s">
+        <v>36</v>
+      </c>
+      <c r="G195" t="s">
+        <v>35</v>
+      </c>
+      <c r="H195" t="b">
+        <v>1</v>
+      </c>
+      <c r="I195" t="s">
+        <v>10</v>
+      </c>
+      <c r="J195" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>211</v>
+      </c>
+      <c r="B196" t="s">
+        <v>192</v>
+      </c>
+      <c r="C196" t="s">
+        <v>212</v>
+      </c>
+      <c r="D196" t="s">
+        <v>106</v>
+      </c>
+      <c r="E196" t="s">
+        <v>108</v>
+      </c>
+      <c r="F196" s="12">
+        <v>1</v>
+      </c>
+      <c r="G196" s="12">
+        <v>1</v>
+      </c>
+      <c r="H196" t="b">
+        <v>0</v>
+      </c>
+      <c r="I196" t="s">
+        <v>10</v>
+      </c>
+      <c r="J196" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>117</v>
+      </c>
+      <c r="B197" t="s">
+        <v>118</v>
+      </c>
+      <c r="C197" t="s">
+        <v>119</v>
+      </c>
+      <c r="D197" t="s">
+        <v>22</v>
+      </c>
+      <c r="E197" t="s">
+        <v>12</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G197" t="s">
+        <v>35</v>
+      </c>
+      <c r="H197" t="b">
+        <v>1</v>
+      </c>
+      <c r="I197" t="s">
+        <v>10</v>
+      </c>
+      <c r="J197" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>117</v>
+      </c>
+      <c r="B198" t="s">
+        <v>118</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D198" t="s">
+        <v>170</v>
+      </c>
+      <c r="E198" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F198" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G198" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="H198" t="b">
+        <v>1</v>
+      </c>
+      <c r="I198" t="s">
+        <v>10</v>
+      </c>
+      <c r="J198" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>199</v>
+      </c>
+      <c r="B199" t="s">
+        <v>192</v>
+      </c>
+      <c r="C199" t="s">
+        <v>200</v>
+      </c>
+      <c r="D199" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E199" t="s">
+        <v>12</v>
+      </c>
+      <c r="F199" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G199" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H199" t="b">
+        <v>1</v>
+      </c>
+      <c r="I199" t="s">
+        <v>10</v>
+      </c>
+      <c r="J199" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>192</v>
+      </c>
+      <c r="C200" t="s">
+        <v>200</v>
+      </c>
+      <c r="D200" t="s">
+        <v>106</v>
+      </c>
+      <c r="E200" t="s">
+        <v>108</v>
+      </c>
+      <c r="F200" s="12">
+        <v>1</v>
+      </c>
+      <c r="G200" s="12">
+        <v>1</v>
+      </c>
+      <c r="H200" t="b">
+        <v>0</v>
+      </c>
+      <c r="I200" t="s">
+        <v>10</v>
+      </c>
+      <c r="J200" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>192</v>
+      </c>
+      <c r="C201" t="s">
+        <v>200</v>
+      </c>
+      <c r="D201" t="s">
+        <v>75</v>
+      </c>
+      <c r="E201" t="s">
+        <v>160</v>
+      </c>
+      <c r="F201" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G201" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H201" t="b">
+        <v>1</v>
+      </c>
+      <c r="I201" t="s">
+        <v>10</v>
+      </c>
+      <c r="J201" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>203</v>
+      </c>
+      <c r="B202" t="s">
+        <v>111</v>
+      </c>
+      <c r="C202" t="s">
+        <v>204</v>
+      </c>
+      <c r="D202" t="s">
+        <v>11</v>
+      </c>
+      <c r="E202" t="s">
+        <v>12</v>
+      </c>
+      <c r="F202" s="12">
+        <v>1</v>
+      </c>
+      <c r="G202" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I202" t="s">
+        <v>10</v>
+      </c>
+      <c r="J202" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>203</v>
+      </c>
+      <c r="B203" t="s">
+        <v>111</v>
+      </c>
+      <c r="C203" t="s">
+        <v>204</v>
+      </c>
+      <c r="D203" t="s">
+        <v>13</v>
+      </c>
+      <c r="E203" t="s">
+        <v>14</v>
+      </c>
+      <c r="F203" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G203" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I203" t="s">
+        <v>10</v>
+      </c>
+      <c r="J203" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>336</v>
+      </c>
+      <c r="B204" t="s">
+        <v>180</v>
+      </c>
+      <c r="C204" t="s">
+        <v>337</v>
+      </c>
+      <c r="D204" t="s">
+        <v>66</v>
+      </c>
+      <c r="E204" t="s">
+        <v>161</v>
+      </c>
+      <c r="F204" s="1">
+        <v>361765</v>
+      </c>
+      <c r="G204" t="s">
+        <v>9</v>
+      </c>
+      <c r="I204" t="s">
+        <v>10</v>
+      </c>
+      <c r="J204" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>336</v>
+      </c>
+      <c r="B205" t="s">
+        <v>180</v>
+      </c>
+      <c r="C205" t="s">
+        <v>337</v>
+      </c>
+      <c r="D205" t="s">
+        <v>68</v>
+      </c>
+      <c r="E205" t="s">
+        <v>161</v>
+      </c>
+      <c r="F205" s="1">
+        <v>314979</v>
+      </c>
+      <c r="G205" t="s">
+        <v>9</v>
+      </c>
+      <c r="I205" t="s">
+        <v>10</v>
+      </c>
+      <c r="J205" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>357</v>
+      </c>
+      <c r="B206" t="s">
+        <v>180</v>
+      </c>
+      <c r="C206" t="s">
+        <v>358</v>
+      </c>
+      <c r="D206" t="s">
+        <v>66</v>
+      </c>
+      <c r="E206" t="s">
+        <v>161</v>
+      </c>
+      <c r="F206" t="s">
+        <v>359</v>
+      </c>
+      <c r="G206" t="s">
+        <v>9</v>
+      </c>
+      <c r="I206" t="s">
+        <v>10</v>
+      </c>
+      <c r="J206" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>357</v>
+      </c>
+      <c r="B207" t="s">
+        <v>180</v>
+      </c>
+      <c r="C207" t="s">
+        <v>358</v>
+      </c>
+      <c r="D207" t="s">
+        <v>68</v>
+      </c>
+      <c r="E207" t="s">
+        <v>161</v>
+      </c>
+      <c r="F207" t="s">
+        <v>359</v>
+      </c>
+      <c r="G207" t="s">
+        <v>9</v>
+      </c>
+      <c r="I207" t="s">
+        <v>10</v>
+      </c>
+      <c r="J207" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>217</v>
+      </c>
+      <c r="B208" t="s">
+        <v>196</v>
+      </c>
+      <c r="C208" t="s">
+        <v>218</v>
+      </c>
+      <c r="D208" t="s">
+        <v>106</v>
+      </c>
+      <c r="E208" t="s">
+        <v>108</v>
+      </c>
+      <c r="F208" s="12">
+        <v>1</v>
+      </c>
+      <c r="G208" s="12">
+        <v>1</v>
+      </c>
+      <c r="H208" t="b">
+        <v>0</v>
+      </c>
+      <c r="I208" t="s">
+        <v>10</v>
+      </c>
+      <c r="J208" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C209" t="s">
+        <v>131</v>
+      </c>
+      <c r="D209" t="s">
+        <v>66</v>
+      </c>
+      <c r="E209" t="s">
+        <v>161</v>
+      </c>
+      <c r="F209">
+        <v>55.794356999999998</v>
+      </c>
+      <c r="G209">
+        <v>43.964799999999997</v>
+      </c>
+      <c r="H209" t="b">
+        <v>1</v>
+      </c>
+      <c r="I209" t="s">
+        <v>10</v>
+      </c>
+      <c r="J209" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C210" t="s">
+        <v>131</v>
+      </c>
+      <c r="D210" t="s">
+        <v>68</v>
+      </c>
+      <c r="E210" t="s">
+        <v>161</v>
+      </c>
+      <c r="F210">
+        <v>55.794356999999998</v>
+      </c>
+      <c r="G210">
+        <v>13.440340000000001</v>
+      </c>
+      <c r="H210" t="b">
+        <v>1</v>
+      </c>
+      <c r="I210" t="s">
+        <v>10</v>
+      </c>
+      <c r="J210" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>130</v>
+      </c>
+      <c r="B211" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C211" t="s">
+        <v>131</v>
+      </c>
+      <c r="D211" t="s">
+        <v>20</v>
+      </c>
+      <c r="E211" t="s">
+        <v>12</v>
+      </c>
+      <c r="F211" t="s">
+        <v>36</v>
+      </c>
+      <c r="G211" t="s">
+        <v>35</v>
+      </c>
+      <c r="H211" t="b">
+        <v>1</v>
+      </c>
+      <c r="I211" t="s">
+        <v>10</v>
+      </c>
+      <c r="J211" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>130</v>
+      </c>
+      <c r="B212" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C212" t="s">
+        <v>131</v>
+      </c>
+      <c r="D212" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E212" t="s">
+        <v>12</v>
+      </c>
+      <c r="F212" t="s">
+        <v>38</v>
+      </c>
+      <c r="G212" t="s">
+        <v>39</v>
+      </c>
+      <c r="H212" t="b">
+        <v>1</v>
+      </c>
+      <c r="I212" t="s">
+        <v>10</v>
+      </c>
+      <c r="J212" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>322</v>
+      </c>
+      <c r="B213" t="s">
+        <v>180</v>
+      </c>
+      <c r="C213" t="s">
+        <v>323</v>
+      </c>
+      <c r="D213" t="s">
+        <v>66</v>
+      </c>
+      <c r="E213" t="s">
+        <v>161</v>
+      </c>
+      <c r="F213" s="1">
+        <v>310947</v>
+      </c>
+      <c r="G213" t="s">
+        <v>9</v>
+      </c>
+      <c r="I213" t="s">
+        <v>10</v>
+      </c>
+      <c r="J213" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>322</v>
+      </c>
+      <c r="B214" t="s">
+        <v>180</v>
+      </c>
+      <c r="C214" t="s">
+        <v>323</v>
+      </c>
+      <c r="D214" t="s">
+        <v>68</v>
+      </c>
+      <c r="E214" t="s">
+        <v>161</v>
+      </c>
+      <c r="F214" s="1">
+        <v>32539</v>
+      </c>
+      <c r="G214" t="s">
+        <v>9</v>
+      </c>
+      <c r="I214" t="s">
+        <v>10</v>
+      </c>
+      <c r="J214" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>302</v>
+      </c>
+      <c r="B215" t="s">
+        <v>180</v>
+      </c>
+      <c r="C215" t="s">
+        <v>303</v>
+      </c>
+      <c r="D215" t="s">
+        <v>66</v>
+      </c>
+      <c r="E215" t="s">
+        <v>161</v>
+      </c>
+      <c r="F215" s="1">
+        <v>382653</v>
+      </c>
+      <c r="G215" t="s">
+        <v>9</v>
+      </c>
+      <c r="I215" t="s">
+        <v>10</v>
+      </c>
+      <c r="J215" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>302</v>
+      </c>
+      <c r="B216" t="s">
+        <v>180</v>
+      </c>
+      <c r="C216" t="s">
+        <v>303</v>
+      </c>
+      <c r="D216" t="s">
+        <v>68</v>
+      </c>
+      <c r="E216" t="s">
+        <v>161</v>
+      </c>
+      <c r="F216" s="1">
+        <v>276167</v>
+      </c>
+      <c r="G216" t="s">
+        <v>9</v>
+      </c>
+      <c r="I216" t="s">
+        <v>10</v>
+      </c>
+      <c r="J216" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>150</v>
+      </c>
+      <c r="B217" t="s">
+        <v>111</v>
+      </c>
+      <c r="C217" t="s">
+        <v>151</v>
+      </c>
+      <c r="D217" t="s">
+        <v>16</v>
+      </c>
+      <c r="E217" t="s">
+        <v>17</v>
+      </c>
+      <c r="F217" t="s">
+        <v>18</v>
+      </c>
+      <c r="G217" t="s">
+        <v>85</v>
+      </c>
+      <c r="H217" t="b">
+        <v>1</v>
+      </c>
+      <c r="I217" t="s">
+        <v>10</v>
+      </c>
+      <c r="J217" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>342</v>
+      </c>
+      <c r="B218" t="s">
+        <v>180</v>
+      </c>
+      <c r="C218" t="s">
+        <v>343</v>
+      </c>
+      <c r="D218" t="s">
+        <v>66</v>
+      </c>
+      <c r="E218" t="s">
+        <v>161</v>
+      </c>
+      <c r="F218" s="1">
+        <v>396155</v>
+      </c>
+      <c r="G218" t="s">
+        <v>9</v>
+      </c>
+      <c r="I218" t="s">
+        <v>10</v>
+      </c>
+      <c r="J218" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>342</v>
+      </c>
+      <c r="B219" t="s">
+        <v>180</v>
+      </c>
+      <c r="C219" t="s">
+        <v>343</v>
+      </c>
+      <c r="D219" t="s">
+        <v>68</v>
+      </c>
+      <c r="E219" t="s">
+        <v>161</v>
+      </c>
+      <c r="F219" s="1">
+        <v>321616</v>
+      </c>
+      <c r="G219" t="s">
+        <v>9</v>
+      </c>
+      <c r="I219" t="s">
+        <v>10</v>
+      </c>
+      <c r="J219" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>183</v>
+      </c>
+      <c r="B220" t="s">
+        <v>180</v>
+      </c>
+      <c r="C220" t="s">
+        <v>181</v>
+      </c>
+      <c r="D220" t="s">
+        <v>113</v>
+      </c>
+      <c r="E220" t="s">
+        <v>114</v>
+      </c>
+      <c r="F220" t="s">
+        <v>184</v>
+      </c>
+      <c r="G220" t="s">
+        <v>9</v>
+      </c>
+      <c r="I220" t="s">
+        <v>10</v>
+      </c>
+      <c r="J220" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>183</v>
+      </c>
+      <c r="B221" t="s">
+        <v>180</v>
+      </c>
+      <c r="C221" t="s">
+        <v>184</v>
+      </c>
+      <c r="D221" t="s">
+        <v>66</v>
+      </c>
+      <c r="E221" t="s">
+        <v>161</v>
+      </c>
+      <c r="F221" s="1">
+        <v>264832</v>
+      </c>
+      <c r="G221" t="s">
+        <v>9</v>
+      </c>
+      <c r="I221" t="s">
+        <v>10</v>
+      </c>
+      <c r="J221" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>251</v>
+      </c>
+      <c r="B222" t="s">
+        <v>180</v>
+      </c>
+      <c r="C222" t="s">
+        <v>252</v>
+      </c>
+      <c r="D222" t="s">
+        <v>66</v>
+      </c>
+      <c r="E222" t="s">
+        <v>161</v>
+      </c>
+      <c r="F222" s="1">
+        <v>340934</v>
+      </c>
+      <c r="G222" t="s">
+        <v>9</v>
+      </c>
+      <c r="I222" t="s">
+        <v>10</v>
+      </c>
+      <c r="J222" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>251</v>
+      </c>
+      <c r="B223" t="s">
+        <v>180</v>
+      </c>
+      <c r="C223" t="s">
+        <v>252</v>
+      </c>
+      <c r="D223" t="s">
+        <v>68</v>
+      </c>
+      <c r="E223" t="s">
+        <v>161</v>
+      </c>
+      <c r="F223" s="1">
+        <v>863887</v>
+      </c>
+      <c r="G223" t="s">
+        <v>9</v>
+      </c>
+      <c r="I223" t="s">
+        <v>10</v>
+      </c>
+      <c r="J223" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>215</v>
+      </c>
+      <c r="B224" t="s">
+        <v>196</v>
+      </c>
+      <c r="C224" t="s">
+        <v>216</v>
+      </c>
+      <c r="D224" t="s">
+        <v>106</v>
+      </c>
+      <c r="E224" t="s">
+        <v>108</v>
+      </c>
+      <c r="F224" s="12">
+        <v>1</v>
+      </c>
+      <c r="G224" s="12">
+        <v>1</v>
+      </c>
+      <c r="H224" t="b">
+        <v>0</v>
+      </c>
+      <c r="I224" t="s">
+        <v>10</v>
+      </c>
+      <c r="J224" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>233</v>
+      </c>
+      <c r="B225" t="s">
+        <v>192</v>
+      </c>
+      <c r="C225" t="s">
+        <v>234</v>
+      </c>
+      <c r="D225" t="s">
+        <v>77</v>
+      </c>
+      <c r="E225" t="s">
+        <v>160</v>
+      </c>
+      <c r="F225" s="12">
+        <v>14</v>
+      </c>
+      <c r="G225" s="12">
+        <v>14</v>
+      </c>
+      <c r="H225" t="b">
+        <v>0</v>
+      </c>
+      <c r="I225" t="s">
+        <v>10</v>
+      </c>
+      <c r="J225" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B226" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C226" t="s">
+        <v>167</v>
+      </c>
+      <c r="D226" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E226" t="s">
+        <v>161</v>
+      </c>
+      <c r="F226">
+        <v>387740.06</v>
+      </c>
+      <c r="G226">
+        <v>43.963619999999999</v>
+      </c>
+      <c r="H226" t="b">
+        <v>1</v>
+      </c>
+      <c r="I226" t="s">
+        <v>10</v>
+      </c>
+      <c r="J226" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B227" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C227" t="s">
+        <v>167</v>
+      </c>
+      <c r="D227" t="s">
+        <v>68</v>
+      </c>
+      <c r="E227" t="s">
+        <v>161</v>
+      </c>
+      <c r="F227">
+        <v>1469509.14</v>
+      </c>
+      <c r="G227">
+        <v>13.29063</v>
+      </c>
+      <c r="H227" t="b">
+        <v>1</v>
+      </c>
+      <c r="I227" t="s">
+        <v>10</v>
+      </c>
+      <c r="J227" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>320</v>
+      </c>
+      <c r="B228" t="s">
+        <v>180</v>
+      </c>
+      <c r="C228" t="s">
+        <v>321</v>
+      </c>
+      <c r="D228" t="s">
+        <v>66</v>
+      </c>
+      <c r="E228" t="s">
+        <v>161</v>
+      </c>
+      <c r="F228" s="1">
+        <v>302541</v>
+      </c>
+      <c r="G228" t="s">
+        <v>9</v>
+      </c>
+      <c r="I228" t="s">
+        <v>10</v>
+      </c>
+      <c r="J228" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>320</v>
+      </c>
+      <c r="B229" t="s">
+        <v>180</v>
+      </c>
+      <c r="C229" t="s">
+        <v>321</v>
+      </c>
+      <c r="D229" t="s">
+        <v>68</v>
+      </c>
+      <c r="E229" t="s">
+        <v>161</v>
+      </c>
+      <c r="F229" s="1">
+        <v>234501</v>
+      </c>
+      <c r="G229" t="s">
+        <v>9</v>
+      </c>
+      <c r="I229" t="s">
+        <v>10</v>
+      </c>
+      <c r="J229" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>128</v>
+      </c>
+      <c r="B230" t="s">
+        <v>111</v>
+      </c>
+      <c r="C230" t="s">
+        <v>129</v>
+      </c>
+      <c r="D230" t="s">
+        <v>20</v>
+      </c>
+      <c r="E230" t="s">
+        <v>12</v>
+      </c>
+      <c r="F230" t="s">
+        <v>36</v>
+      </c>
+      <c r="G230" t="s">
+        <v>35</v>
+      </c>
+      <c r="H230" t="b">
+        <v>1</v>
+      </c>
+      <c r="I230" t="s">
+        <v>10</v>
+      </c>
+      <c r="J230" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>128</v>
+      </c>
+      <c r="B231" t="s">
+        <v>111</v>
+      </c>
+      <c r="C231" t="s">
+        <v>129</v>
+      </c>
+      <c r="D231" t="s">
+        <v>13</v>
+      </c>
+      <c r="E231" t="s">
+        <v>14</v>
+      </c>
+      <c r="F231" t="s">
+        <v>15</v>
+      </c>
+      <c r="G231" t="s">
+        <v>99</v>
+      </c>
+      <c r="H231" t="b">
+        <v>1</v>
+      </c>
+      <c r="I231" t="s">
+        <v>10</v>
+      </c>
+      <c r="J231" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>249</v>
+      </c>
+      <c r="B232" t="s">
+        <v>180</v>
+      </c>
+      <c r="C232" t="s">
+        <v>250</v>
+      </c>
+      <c r="D232" t="s">
+        <v>66</v>
+      </c>
+      <c r="E232" t="s">
+        <v>161</v>
+      </c>
+      <c r="F232" s="1">
+        <v>333469</v>
+      </c>
+      <c r="G232" t="s">
+        <v>9</v>
+      </c>
+      <c r="I232" t="s">
+        <v>10</v>
+      </c>
+      <c r="J232" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>249</v>
+      </c>
+      <c r="B233" t="s">
+        <v>180</v>
+      </c>
+      <c r="C233" t="s">
+        <v>250</v>
+      </c>
+      <c r="D233" t="s">
+        <v>68</v>
+      </c>
+      <c r="E233" t="s">
+        <v>161</v>
+      </c>
+      <c r="F233" s="1">
+        <v>10327</v>
+      </c>
+      <c r="G233" t="s">
+        <v>9</v>
+      </c>
+      <c r="I233" t="s">
+        <v>10</v>
+      </c>
+      <c r="J233" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>175</v>
+      </c>
+      <c r="B234" t="s">
+        <v>111</v>
+      </c>
+      <c r="C234" t="s">
+        <v>176</v>
+      </c>
+      <c r="D234" t="s">
+        <v>113</v>
+      </c>
+      <c r="E234" t="s">
+        <v>114</v>
+      </c>
+      <c r="F234" t="s">
+        <v>177</v>
+      </c>
+      <c r="G234" t="s">
+        <v>9</v>
+      </c>
+      <c r="I234" t="s">
+        <v>10</v>
+      </c>
+      <c r="J234" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>152</v>
+      </c>
+      <c r="B235" t="s">
+        <v>111</v>
+      </c>
+      <c r="C235" t="s">
+        <v>153</v>
+      </c>
+      <c r="D235" t="s">
+        <v>16</v>
+      </c>
+      <c r="E235" t="s">
+        <v>17</v>
+      </c>
+      <c r="F235" t="s">
+        <v>18</v>
+      </c>
+      <c r="G235" t="s">
+        <v>85</v>
+      </c>
+      <c r="H235" t="b">
+        <v>1</v>
+      </c>
+      <c r="I235" t="s">
+        <v>10</v>
+      </c>
+      <c r="J235" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>340</v>
+      </c>
+      <c r="B236" t="s">
+        <v>180</v>
+      </c>
+      <c r="C236" t="s">
+        <v>341</v>
+      </c>
+      <c r="D236" t="s">
+        <v>66</v>
+      </c>
+      <c r="E236" t="s">
+        <v>161</v>
+      </c>
+      <c r="F236" s="1">
+        <v>376581</v>
+      </c>
+      <c r="G236" t="s">
+        <v>9</v>
+      </c>
+      <c r="I236" t="s">
+        <v>10</v>
+      </c>
+      <c r="J236" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>340</v>
+      </c>
+      <c r="B237" t="s">
+        <v>180</v>
+      </c>
+      <c r="C237" t="s">
+        <v>341</v>
+      </c>
+      <c r="D237" t="s">
+        <v>68</v>
+      </c>
+      <c r="E237" t="s">
+        <v>161</v>
+      </c>
+      <c r="F237" s="1">
+        <v>2494262</v>
+      </c>
+      <c r="G237" t="s">
+        <v>9</v>
+      </c>
+      <c r="I237" t="s">
+        <v>10</v>
+      </c>
+      <c r="J237" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J73">
-    <sortState ref="A2:J73">
-      <sortCondition ref="B1:B73"/>
+  <autoFilter ref="A1:J237">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="sdf"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A5:J237">
+      <sortCondition ref="A1:A237"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3260,8 +8775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3274,12 +8789,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -3436,12 +8951,12 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -3478,12 +8993,12 @@
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -3572,12 +9087,12 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -3710,12 +9225,12 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
